--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,36 @@
     <t>['3', '27']</t>
   </si>
   <si>
+    <t>['5', '24']</t>
+  </si>
+  <si>
+    <t>['51', '63']</t>
+  </si>
+  <si>
+    <t>['85', '90+8']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['32', '72']</t>
+  </si>
+  <si>
+    <t>['6', '21', '51', '61', '71']</t>
+  </si>
+  <si>
+    <t>['52', '73', '83']</t>
+  </si>
+  <si>
+    <t>['18', '30']</t>
+  </si>
+  <si>
+    <t>['14', '46', '57', '90+1']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['55', '66']</t>
   </si>
   <si>
@@ -1046,6 +1076,30 @@
   </si>
   <si>
     <t>['10', '31', '90+5']</t>
+  </si>
+  <si>
+    <t>['54', '90+5']</t>
+  </si>
+  <si>
+    <t>['62', '72']</t>
+  </si>
+  <si>
+    <t>['6', '44', '54', '75']</t>
+  </si>
+  <si>
+    <t>['4', '29', '89']</t>
+  </si>
+  <si>
+    <t>['10', '50', '62', '68']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['13', '69']</t>
+  </si>
+  <si>
+    <t>['20', '59', '69', '73', '88', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1705,7 @@
         <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1842,7 +1896,7 @@
         <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2033,7 +2087,7 @@
         <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2415,7 +2469,7 @@
         <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -3179,7 +3233,7 @@
         <v>150</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -5089,7 +5143,7 @@
         <v>156</v>
       </c>
       <c r="P20" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5280,7 +5334,7 @@
         <v>157</v>
       </c>
       <c r="P21" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -6044,7 +6098,7 @@
         <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -6426,7 +6480,7 @@
         <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6617,7 +6671,7 @@
         <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6808,7 +6862,7 @@
         <v>163</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6999,7 +7053,7 @@
         <v>164</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7190,7 +7244,7 @@
         <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7381,7 +7435,7 @@
         <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7572,7 +7626,7 @@
         <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7954,7 +8008,7 @@
         <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8336,7 +8390,7 @@
         <v>169</v>
       </c>
       <c r="P37" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8718,7 +8772,7 @@
         <v>171</v>
       </c>
       <c r="P39" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="Q39">
         <v>16</v>
@@ -9100,7 +9154,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9187,7 +9241,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -9291,7 +9345,7 @@
         <v>174</v>
       </c>
       <c r="P42" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9381,7 +9435,7 @@
         <v>0.75</v>
       </c>
       <c r="AT42">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU42">
         <v>0.48</v>
@@ -9482,7 +9536,7 @@
         <v>175</v>
       </c>
       <c r="P43" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9569,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT43">
         <v>0.5</v>
@@ -9673,7 +9727,7 @@
         <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10246,7 +10300,7 @@
         <v>177</v>
       </c>
       <c r="P47" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10715,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT49">
         <v>0.75</v>
@@ -10819,7 +10873,7 @@
         <v>180</v>
       </c>
       <c r="P50" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11010,7 +11064,7 @@
         <v>181</v>
       </c>
       <c r="P51" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11201,7 +11255,7 @@
         <v>145</v>
       </c>
       <c r="P52" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11291,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU52">
         <v>2.01</v>
@@ -11583,7 +11637,7 @@
         <v>145</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11774,7 +11828,7 @@
         <v>183</v>
       </c>
       <c r="P55" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11965,7 +12019,7 @@
         <v>178</v>
       </c>
       <c r="P56" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12156,7 +12210,7 @@
         <v>176</v>
       </c>
       <c r="P57" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12347,7 +12401,7 @@
         <v>145</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12437,7 +12491,7 @@
         <v>0.5</v>
       </c>
       <c r="AT58">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12538,7 +12592,7 @@
         <v>184</v>
       </c>
       <c r="P59" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12628,7 +12682,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU59">
         <v>1.5</v>
@@ -12729,7 +12783,7 @@
         <v>160</v>
       </c>
       <c r="P60" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -12819,7 +12873,7 @@
         <v>1.5</v>
       </c>
       <c r="AT60">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU60">
         <v>2.52</v>
@@ -13201,7 +13255,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13302,7 +13356,7 @@
         <v>187</v>
       </c>
       <c r="P63" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13389,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -13962,7 +14016,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT66">
         <v>1.5</v>
@@ -14639,7 +14693,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Q70">
         <v>8</v>
@@ -14830,7 +14884,7 @@
         <v>194</v>
       </c>
       <c r="P71" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -14917,7 +14971,7 @@
         <v>1.6</v>
       </c>
       <c r="AS71">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>1.33</v>
@@ -15111,7 +15165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -15212,7 +15266,7 @@
         <v>196</v>
       </c>
       <c r="P73" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q73">
         <v>12</v>
@@ -15302,7 +15356,7 @@
         <v>0.5</v>
       </c>
       <c r="AT73">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU73">
         <v>3.17</v>
@@ -15403,7 +15457,7 @@
         <v>197</v>
       </c>
       <c r="P74" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -15490,7 +15544,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT74">
         <v>1.5</v>
@@ -15594,7 +15648,7 @@
         <v>198</v>
       </c>
       <c r="P75" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -15785,7 +15839,7 @@
         <v>199</v>
       </c>
       <c r="P76" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15976,7 +16030,7 @@
         <v>200</v>
       </c>
       <c r="P77" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16254,7 +16308,7 @@
         <v>3</v>
       </c>
       <c r="AS78">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT78">
         <v>1.5</v>
@@ -16448,7 +16502,7 @@
         <v>1.63</v>
       </c>
       <c r="AT79">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU79">
         <v>2.15</v>
@@ -16549,7 +16603,7 @@
         <v>202</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16636,7 +16690,7 @@
         <v>2</v>
       </c>
       <c r="AS80">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT80">
         <v>1.25</v>
@@ -16740,7 +16794,7 @@
         <v>203</v>
       </c>
       <c r="P81" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16827,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT81">
         <v>0.5</v>
@@ -17021,7 +17075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU82">
         <v>2.01</v>
@@ -17122,7 +17176,7 @@
         <v>204</v>
       </c>
       <c r="P83" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17209,7 +17263,7 @@
         <v>3</v>
       </c>
       <c r="AS83">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT83">
         <v>1.75</v>
@@ -17313,7 +17367,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17403,7 +17457,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU84">
         <v>1.34</v>
@@ -17504,7 +17558,7 @@
         <v>205</v>
       </c>
       <c r="P85" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17591,7 +17645,7 @@
         <v>1.71</v>
       </c>
       <c r="AS85">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
         <v>1.5</v>
@@ -17782,7 +17836,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT86">
         <v>1.67</v>
@@ -17886,7 +17940,7 @@
         <v>207</v>
       </c>
       <c r="P87" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17976,7 +18030,7 @@
         <v>1.75</v>
       </c>
       <c r="AT87">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU87">
         <v>2.32</v>
@@ -18164,7 +18218,7 @@
         <v>1.86</v>
       </c>
       <c r="AS88">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT88">
         <v>1.63</v>
@@ -18268,7 +18322,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18358,7 +18412,7 @@
         <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU89">
         <v>1.51</v>
@@ -18549,7 +18603,7 @@
         <v>0.5</v>
       </c>
       <c r="AT90">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -18737,10 +18791,10 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU91">
         <v>1.96</v>
@@ -18928,10 +18982,10 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU92">
         <v>0</v>
@@ -19032,7 +19086,7 @@
         <v>211</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -19119,10 +19173,10 @@
         <v>0</v>
       </c>
       <c r="AS93">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT93">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -19310,10 +19364,10 @@
         <v>1.83</v>
       </c>
       <c r="AS94">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT94">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU94">
         <v>2.68</v>
@@ -19414,7 +19468,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -19501,10 +19555,10 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT95">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU95">
         <v>0</v>
@@ -19605,7 +19659,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19692,10 +19746,10 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19796,7 +19850,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19883,10 +19937,10 @@
         <v>0</v>
       </c>
       <c r="AS97">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT97">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -20074,10 +20128,10 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT98">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU98">
         <v>0</v>
@@ -20265,10 +20319,10 @@
         <v>1.75</v>
       </c>
       <c r="AS99">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT99">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20369,7 +20423,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20456,10 +20510,10 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU100">
         <v>0</v>
@@ -20647,10 +20701,10 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT101">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -20751,7 +20805,7 @@
         <v>215</v>
       </c>
       <c r="P102" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20838,10 +20892,10 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT102">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>0</v>
@@ -21029,10 +21083,10 @@
         <v>0</v>
       </c>
       <c r="AS103">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT103">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -21133,7 +21187,7 @@
         <v>217</v>
       </c>
       <c r="P104" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Q104">
         <v>10</v>
@@ -21220,10 +21274,10 @@
         <v>2.67</v>
       </c>
       <c r="AS104">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT104">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21324,7 +21378,7 @@
         <v>145</v>
       </c>
       <c r="P105" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21411,7 +21465,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT105">
         <v>3</v>
@@ -21602,10 +21656,10 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT106">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -21793,10 +21847,10 @@
         <v>3</v>
       </c>
       <c r="AS107">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT107">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU107">
         <v>0</v>
@@ -21897,7 +21951,7 @@
         <v>145</v>
       </c>
       <c r="P108" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21984,10 +22038,10 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU108">
         <v>1.53</v>
@@ -22175,10 +22229,10 @@
         <v>3</v>
       </c>
       <c r="AS109">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT109">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -22279,7 +22333,7 @@
         <v>145</v>
       </c>
       <c r="P110" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22366,10 +22420,10 @@
         <v>3</v>
       </c>
       <c r="AS110">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT110">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -22557,10 +22611,10 @@
         <v>3</v>
       </c>
       <c r="AS111">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -22751,7 +22805,7 @@
         <v>3</v>
       </c>
       <c r="AT112">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU112">
         <v>0</v>
@@ -22852,7 +22906,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22939,10 +22993,10 @@
         <v>0</v>
       </c>
       <c r="AS113">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU113">
         <v>0</v>
@@ -23043,7 +23097,7 @@
         <v>223</v>
       </c>
       <c r="P114" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23130,10 +23184,10 @@
         <v>2.29</v>
       </c>
       <c r="AS114">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -23234,7 +23288,7 @@
         <v>224</v>
       </c>
       <c r="P115" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23321,10 +23375,10 @@
         <v>0</v>
       </c>
       <c r="AS115">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT115">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU115">
         <v>0</v>
@@ -23425,7 +23479,7 @@
         <v>225</v>
       </c>
       <c r="P116" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23512,10 +23566,10 @@
         <v>3</v>
       </c>
       <c r="AS116">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT116">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU116">
         <v>2.24</v>
@@ -23616,7 +23670,7 @@
         <v>226</v>
       </c>
       <c r="P117" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23703,10 +23757,10 @@
         <v>3</v>
       </c>
       <c r="AS117">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT117">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU117">
         <v>0</v>
@@ -23894,10 +23948,10 @@
         <v>0</v>
       </c>
       <c r="AS118">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU118">
         <v>1.33</v>
@@ -24085,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT119">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU119">
         <v>0</v>
@@ -24189,7 +24243,7 @@
         <v>228</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24276,10 +24330,10 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT120">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -24380,7 +24434,7 @@
         <v>145</v>
       </c>
       <c r="P121" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24467,10 +24521,10 @@
         <v>3</v>
       </c>
       <c r="AS121">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU121">
         <v>1.81</v>
@@ -24571,7 +24625,7 @@
         <v>229</v>
       </c>
       <c r="P122" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24658,10 +24712,10 @@
         <v>3</v>
       </c>
       <c r="AS122">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT122">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU122">
         <v>0</v>
@@ -24852,7 +24906,7 @@
         <v>3</v>
       </c>
       <c r="AT123">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -24953,7 +25007,7 @@
         <v>231</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25040,10 +25094,10 @@
         <v>3</v>
       </c>
       <c r="AS124">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU124">
         <v>1.8</v>
@@ -25231,10 +25285,10 @@
         <v>1.5</v>
       </c>
       <c r="AS125">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU125">
         <v>1.18</v>
@@ -25422,10 +25476,10 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT126">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU126">
         <v>2.77</v>
@@ -25526,7 +25580,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25613,10 +25667,10 @@
         <v>3</v>
       </c>
       <c r="AS127">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT127">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU127">
         <v>2.51</v>
@@ -25804,10 +25858,10 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT128">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU128">
         <v>1.9</v>
@@ -25995,10 +26049,10 @@
         <v>1.5</v>
       </c>
       <c r="AS129">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT129">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU129">
         <v>1.16</v>
@@ -26186,10 +26240,10 @@
         <v>1.5</v>
       </c>
       <c r="AS130">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT130">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU130">
         <v>1.26</v>
@@ -26377,10 +26431,10 @@
         <v>2</v>
       </c>
       <c r="AS131">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT131">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU131">
         <v>1.62</v>
@@ -26568,10 +26622,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT132">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU132">
         <v>1.76</v>
@@ -26672,7 +26726,7 @@
         <v>236</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26759,10 +26813,10 @@
         <v>1.38</v>
       </c>
       <c r="AS133">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT133">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU133">
         <v>1.61</v>
@@ -26863,7 +26917,7 @@
         <v>237</v>
       </c>
       <c r="P134" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -26950,10 +27004,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT134">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU134">
         <v>0.84</v>
@@ -27141,10 +27195,10 @@
         <v>3</v>
       </c>
       <c r="AS135">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT135">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU135">
         <v>2.41</v>
@@ -27332,10 +27386,10 @@
         <v>2</v>
       </c>
       <c r="AS136">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT136">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>1.49</v>
@@ -27523,10 +27577,10 @@
         <v>2</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT137">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU137">
         <v>1.94</v>
@@ -27714,10 +27768,10 @@
         <v>1.25</v>
       </c>
       <c r="AS138">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT138">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU138">
         <v>1.78</v>
@@ -27905,10 +27959,10 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT139">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU139">
         <v>2.14</v>
@@ -28096,10 +28150,10 @@
         <v>3</v>
       </c>
       <c r="AS140">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT140">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU140">
         <v>1.14</v>
@@ -28200,7 +28254,7 @@
         <v>242</v>
       </c>
       <c r="P141" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28287,10 +28341,10 @@
         <v>0.33</v>
       </c>
       <c r="AS141">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT141">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU141">
         <v>2</v>
@@ -28391,7 +28445,7 @@
         <v>193</v>
       </c>
       <c r="P142" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28478,10 +28532,10 @@
         <v>2.71</v>
       </c>
       <c r="AS142">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT142">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU142">
         <v>1.85</v>
@@ -28582,7 +28636,7 @@
         <v>145</v>
       </c>
       <c r="P143" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28669,10 +28723,10 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT143">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU143">
         <v>1.5</v>
@@ -28773,7 +28827,7 @@
         <v>243</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28860,10 +28914,10 @@
         <v>1.67</v>
       </c>
       <c r="AS144">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT144">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>1.7</v>
@@ -28964,7 +29018,7 @@
         <v>145</v>
       </c>
       <c r="P145" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Q145">
         <v>2</v>
@@ -29051,10 +29105,10 @@
         <v>1.33</v>
       </c>
       <c r="AS145">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT145">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU145">
         <v>2.12</v>
@@ -29155,7 +29209,7 @@
         <v>244</v>
       </c>
       <c r="P146" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29242,10 +29296,10 @@
         <v>3</v>
       </c>
       <c r="AS146">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT146">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU146">
         <v>0.93</v>
@@ -29346,7 +29400,7 @@
         <v>245</v>
       </c>
       <c r="P147" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29433,10 +29487,10 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT147">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>2.12</v>
@@ -29624,10 +29678,10 @@
         <v>3</v>
       </c>
       <c r="AS148">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT148">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU148">
         <v>1.32</v>
@@ -29728,7 +29782,7 @@
         <v>246</v>
       </c>
       <c r="P149" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -29815,10 +29869,10 @@
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT149">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU149">
         <v>1.72</v>
@@ -29919,7 +29973,7 @@
         <v>247</v>
       </c>
       <c r="P150" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30006,7 +30060,7 @@
         <v>3</v>
       </c>
       <c r="AS150">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT150">
         <v>3</v>
@@ -30110,7 +30164,7 @@
         <v>145</v>
       </c>
       <c r="P151" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30197,10 +30251,10 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AT151">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU151">
         <v>1.52</v>
@@ -30301,7 +30355,7 @@
         <v>145</v>
       </c>
       <c r="P152" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30388,10 +30442,10 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT152">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU152">
         <v>1.9</v>
@@ -30492,7 +30546,7 @@
         <v>248</v>
       </c>
       <c r="P153" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q153">
         <v>3</v>
@@ -30579,10 +30633,10 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT153">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU153">
         <v>1.64</v>
@@ -30683,7 +30737,7 @@
         <v>249</v>
       </c>
       <c r="P154" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="Q154">
         <v>10</v>
@@ -30770,10 +30824,10 @@
         <v>2</v>
       </c>
       <c r="AS154">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT154">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU154">
         <v>2.62</v>
@@ -30961,10 +31015,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT155">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU155">
         <v>1.55</v>
@@ -31065,7 +31119,7 @@
         <v>168</v>
       </c>
       <c r="P156" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q156">
         <v>9</v>
@@ -31152,10 +31206,10 @@
         <v>1.75</v>
       </c>
       <c r="AS156">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT156">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU156">
         <v>1.83</v>
@@ -31256,7 +31310,7 @@
         <v>251</v>
       </c>
       <c r="P157" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31343,10 +31397,10 @@
         <v>0.75</v>
       </c>
       <c r="AS157">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT157">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU157">
         <v>2.16</v>
@@ -31447,7 +31501,7 @@
         <v>145</v>
       </c>
       <c r="P158" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -31534,10 +31588,10 @@
         <v>1</v>
       </c>
       <c r="AS158">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT158">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU158">
         <v>1.72</v>
@@ -31638,7 +31692,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31725,10 +31779,10 @@
         <v>1.25</v>
       </c>
       <c r="AS159">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT159">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU159">
         <v>1.58</v>
@@ -31829,7 +31883,7 @@
         <v>252</v>
       </c>
       <c r="P160" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -31916,10 +31970,10 @@
         <v>2.5</v>
       </c>
       <c r="AS160">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT160">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU160">
         <v>2.02</v>
@@ -32107,10 +32161,10 @@
         <v>2.5</v>
       </c>
       <c r="AS161">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU161">
         <v>1.63</v>
@@ -32211,7 +32265,7 @@
         <v>253</v>
       </c>
       <c r="P162" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q162">
         <v>3</v>
@@ -32298,10 +32352,10 @@
         <v>1.4</v>
       </c>
       <c r="AS162">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT162">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU162">
         <v>1.55</v>
@@ -32489,10 +32543,10 @@
         <v>1.6</v>
       </c>
       <c r="AS163">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT163">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU163">
         <v>1.09</v>
@@ -32593,7 +32647,7 @@
         <v>145</v>
       </c>
       <c r="P164" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32680,10 +32734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT164">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU164">
         <v>1.14</v>
@@ -32871,10 +32925,10 @@
         <v>0.88</v>
       </c>
       <c r="AS165">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT165">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU165">
         <v>1.91</v>
@@ -32975,7 +33029,7 @@
         <v>145</v>
       </c>
       <c r="P166" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33062,10 +33116,10 @@
         <v>2.25</v>
       </c>
       <c r="AS166">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT166">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU166">
         <v>1.85</v>
@@ -33166,7 +33220,7 @@
         <v>256</v>
       </c>
       <c r="P167" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -33253,10 +33307,10 @@
         <v>0.75</v>
       </c>
       <c r="AS167">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT167">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU167">
         <v>2.07</v>
@@ -33357,7 +33411,7 @@
         <v>145</v>
       </c>
       <c r="P168" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33444,7 +33498,7 @@
         <v>3</v>
       </c>
       <c r="AS168">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT168">
         <v>3</v>
@@ -33635,10 +33689,10 @@
         <v>1.5</v>
       </c>
       <c r="AS169">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT169">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU169">
         <v>1.65</v>
@@ -33826,10 +33880,10 @@
         <v>1.5</v>
       </c>
       <c r="AS170">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT170">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU170">
         <v>1.26</v>
@@ -33881,6 +33935,3062 @@
       </c>
       <c r="BK170">
         <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>3722109</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44866.61458333334</v>
+      </c>
+      <c r="F171">
+        <v>6</v>
+      </c>
+      <c r="G171" t="s">
+        <v>133</v>
+      </c>
+      <c r="H171" t="s">
+        <v>126</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>258</v>
+      </c>
+      <c r="P171" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q171">
+        <v>8</v>
+      </c>
+      <c r="R171">
+        <v>5</v>
+      </c>
+      <c r="S171">
+        <v>13</v>
+      </c>
+      <c r="T171">
+        <v>3</v>
+      </c>
+      <c r="U171">
+        <v>2.11</v>
+      </c>
+      <c r="V171">
+        <v>3.58</v>
+      </c>
+      <c r="W171">
+        <v>1.42</v>
+      </c>
+      <c r="X171">
+        <v>2.78</v>
+      </c>
+      <c r="Y171">
+        <v>2.94</v>
+      </c>
+      <c r="Z171">
+        <v>1.38</v>
+      </c>
+      <c r="AA171">
+        <v>7.6</v>
+      </c>
+      <c r="AB171">
+        <v>1.07</v>
+      </c>
+      <c r="AC171">
+        <v>2.6</v>
+      </c>
+      <c r="AD171">
+        <v>3.1</v>
+      </c>
+      <c r="AE171">
+        <v>2.8</v>
+      </c>
+      <c r="AF171">
+        <v>1.02</v>
+      </c>
+      <c r="AG171">
+        <v>8.6</v>
+      </c>
+      <c r="AH171">
+        <v>1.31</v>
+      </c>
+      <c r="AI171">
+        <v>3.2</v>
+      </c>
+      <c r="AJ171">
+        <v>2.01</v>
+      </c>
+      <c r="AK171">
+        <v>1.79</v>
+      </c>
+      <c r="AL171">
+        <v>1.79</v>
+      </c>
+      <c r="AM171">
+        <v>1.98</v>
+      </c>
+      <c r="AN171">
+        <v>1.44</v>
+      </c>
+      <c r="AO171">
+        <v>1.35</v>
+      </c>
+      <c r="AP171">
+        <v>1.6</v>
+      </c>
+      <c r="AQ171">
+        <v>1.8</v>
+      </c>
+      <c r="AR171">
+        <v>1</v>
+      </c>
+      <c r="AS171">
+        <v>2</v>
+      </c>
+      <c r="AT171">
+        <v>0.83</v>
+      </c>
+      <c r="AU171">
+        <v>1.75</v>
+      </c>
+      <c r="AV171">
+        <v>1.8</v>
+      </c>
+      <c r="AW171">
+        <v>3.55</v>
+      </c>
+      <c r="AX171">
+        <v>1.9</v>
+      </c>
+      <c r="AY171">
+        <v>7.1</v>
+      </c>
+      <c r="AZ171">
+        <v>2.32</v>
+      </c>
+      <c r="BA171">
+        <v>1.29</v>
+      </c>
+      <c r="BB171">
+        <v>1.52</v>
+      </c>
+      <c r="BC171">
+        <v>1.87</v>
+      </c>
+      <c r="BD171">
+        <v>2.4</v>
+      </c>
+      <c r="BE171">
+        <v>3.2</v>
+      </c>
+      <c r="BF171">
+        <v>8</v>
+      </c>
+      <c r="BG171">
+        <v>9</v>
+      </c>
+      <c r="BH171">
+        <v>8</v>
+      </c>
+      <c r="BI171">
+        <v>9</v>
+      </c>
+      <c r="BJ171">
+        <v>16</v>
+      </c>
+      <c r="BK171">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>3722110</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44866.61458333334</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+      <c r="G172" t="s">
+        <v>134</v>
+      </c>
+      <c r="H172" t="s">
+        <v>127</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>145</v>
+      </c>
+      <c r="P172" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q172">
+        <v>7</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172">
+        <v>10</v>
+      </c>
+      <c r="T172">
+        <v>2.14</v>
+      </c>
+      <c r="U172">
+        <v>2.44</v>
+      </c>
+      <c r="V172">
+        <v>4.75</v>
+      </c>
+      <c r="W172">
+        <v>1.28</v>
+      </c>
+      <c r="X172">
+        <v>3.54</v>
+      </c>
+      <c r="Y172">
+        <v>2.32</v>
+      </c>
+      <c r="Z172">
+        <v>1.58</v>
+      </c>
+      <c r="AA172">
+        <v>5.3</v>
+      </c>
+      <c r="AB172">
+        <v>1.14</v>
+      </c>
+      <c r="AC172">
+        <v>1.57</v>
+      </c>
+      <c r="AD172">
+        <v>4.2</v>
+      </c>
+      <c r="AE172">
+        <v>5.5</v>
+      </c>
+      <c r="AF172">
+        <v>1</v>
+      </c>
+      <c r="AG172">
+        <v>11</v>
+      </c>
+      <c r="AH172">
+        <v>1.16</v>
+      </c>
+      <c r="AI172">
+        <v>4.65</v>
+      </c>
+      <c r="AJ172">
+        <v>1.56</v>
+      </c>
+      <c r="AK172">
+        <v>2.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.62</v>
+      </c>
+      <c r="AM172">
+        <v>2.25</v>
+      </c>
+      <c r="AN172">
+        <v>1.21</v>
+      </c>
+      <c r="AO172">
+        <v>1.25</v>
+      </c>
+      <c r="AP172">
+        <v>2.32</v>
+      </c>
+      <c r="AQ172">
+        <v>0.8</v>
+      </c>
+      <c r="AR172">
+        <v>2</v>
+      </c>
+      <c r="AS172">
+        <v>0.83</v>
+      </c>
+      <c r="AT172">
+        <v>1.83</v>
+      </c>
+      <c r="AU172">
+        <v>2.01</v>
+      </c>
+      <c r="AV172">
+        <v>1.25</v>
+      </c>
+      <c r="AW172">
+        <v>3.26</v>
+      </c>
+      <c r="AX172">
+        <v>1.41</v>
+      </c>
+      <c r="AY172">
+        <v>8.4</v>
+      </c>
+      <c r="AZ172">
+        <v>3.7</v>
+      </c>
+      <c r="BA172">
+        <v>1.23</v>
+      </c>
+      <c r="BB172">
+        <v>1.42</v>
+      </c>
+      <c r="BC172">
+        <v>1.7</v>
+      </c>
+      <c r="BD172">
+        <v>2.14</v>
+      </c>
+      <c r="BE172">
+        <v>2.75</v>
+      </c>
+      <c r="BF172">
+        <v>5</v>
+      </c>
+      <c r="BG172">
+        <v>2</v>
+      </c>
+      <c r="BH172">
+        <v>12</v>
+      </c>
+      <c r="BI172">
+        <v>7</v>
+      </c>
+      <c r="BJ172">
+        <v>17</v>
+      </c>
+      <c r="BK172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>3722116</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F173">
+        <v>6</v>
+      </c>
+      <c r="G173" t="s">
+        <v>136</v>
+      </c>
+      <c r="H173" t="s">
+        <v>130</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>143</v>
+      </c>
+      <c r="P173" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q173">
+        <v>9</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+      <c r="S173">
+        <v>12</v>
+      </c>
+      <c r="T173">
+        <v>3.68</v>
+      </c>
+      <c r="U173">
+        <v>2.19</v>
+      </c>
+      <c r="V173">
+        <v>2.79</v>
+      </c>
+      <c r="W173">
+        <v>1.37</v>
+      </c>
+      <c r="X173">
+        <v>2.99</v>
+      </c>
+      <c r="Y173">
+        <v>2.7</v>
+      </c>
+      <c r="Z173">
+        <v>1.44</v>
+      </c>
+      <c r="AA173">
+        <v>6.7</v>
+      </c>
+      <c r="AB173">
+        <v>1.09</v>
+      </c>
+      <c r="AC173">
+        <v>3.25</v>
+      </c>
+      <c r="AD173">
+        <v>3.5</v>
+      </c>
+      <c r="AE173">
+        <v>2.15</v>
+      </c>
+      <c r="AF173">
+        <v>1.01</v>
+      </c>
+      <c r="AG173">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH173">
+        <v>1.25</v>
+      </c>
+      <c r="AI173">
+        <v>3.62</v>
+      </c>
+      <c r="AJ173">
+        <v>1.81</v>
+      </c>
+      <c r="AK173">
+        <v>1.99</v>
+      </c>
+      <c r="AL173">
+        <v>1.69</v>
+      </c>
+      <c r="AM173">
+        <v>2.12</v>
+      </c>
+      <c r="AN173">
+        <v>1.69</v>
+      </c>
+      <c r="AO173">
+        <v>1.32</v>
+      </c>
+      <c r="AP173">
+        <v>1.4</v>
+      </c>
+      <c r="AQ173">
+        <v>1.2</v>
+      </c>
+      <c r="AR173">
+        <v>1.6</v>
+      </c>
+      <c r="AS173">
+        <v>1</v>
+      </c>
+      <c r="AT173">
+        <v>1.83</v>
+      </c>
+      <c r="AU173">
+        <v>2.08</v>
+      </c>
+      <c r="AV173">
+        <v>1.51</v>
+      </c>
+      <c r="AW173">
+        <v>3.59</v>
+      </c>
+      <c r="AX173">
+        <v>2.1</v>
+      </c>
+      <c r="AY173">
+        <v>6.8</v>
+      </c>
+      <c r="AZ173">
+        <v>2.1</v>
+      </c>
+      <c r="BA173">
+        <v>1.32</v>
+      </c>
+      <c r="BB173">
+        <v>1.57</v>
+      </c>
+      <c r="BC173">
+        <v>1.95</v>
+      </c>
+      <c r="BD173">
+        <v>2.55</v>
+      </c>
+      <c r="BE173">
+        <v>3.4</v>
+      </c>
+      <c r="BF173">
+        <v>5</v>
+      </c>
+      <c r="BG173">
+        <v>4</v>
+      </c>
+      <c r="BH173">
+        <v>12</v>
+      </c>
+      <c r="BI173">
+        <v>4</v>
+      </c>
+      <c r="BJ173">
+        <v>17</v>
+      </c>
+      <c r="BK173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>3722115</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174" t="s">
+        <v>131</v>
+      </c>
+      <c r="H174" t="s">
+        <v>124</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>193</v>
+      </c>
+      <c r="P174" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q174">
+        <v>3</v>
+      </c>
+      <c r="R174">
+        <v>6</v>
+      </c>
+      <c r="S174">
+        <v>9</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
+        <v>2.25</v>
+      </c>
+      <c r="V174">
+        <v>3.4</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>3</v>
+      </c>
+      <c r="Y174">
+        <v>2.63</v>
+      </c>
+      <c r="Z174">
+        <v>1.44</v>
+      </c>
+      <c r="AA174">
+        <v>7</v>
+      </c>
+      <c r="AB174">
+        <v>1.1</v>
+      </c>
+      <c r="AC174">
+        <v>2.38</v>
+      </c>
+      <c r="AD174">
+        <v>3.4</v>
+      </c>
+      <c r="AE174">
+        <v>2.88</v>
+      </c>
+      <c r="AF174">
+        <v>1.01</v>
+      </c>
+      <c r="AG174">
+        <v>9.9</v>
+      </c>
+      <c r="AH174">
+        <v>1.25</v>
+      </c>
+      <c r="AI174">
+        <v>3.62</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>2</v>
+      </c>
+      <c r="AL174">
+        <v>1.62</v>
+      </c>
+      <c r="AM174">
+        <v>2.2</v>
+      </c>
+      <c r="AN174">
+        <v>1.46</v>
+      </c>
+      <c r="AO174">
+        <v>1.33</v>
+      </c>
+      <c r="AP174">
+        <v>1.6</v>
+      </c>
+      <c r="AQ174">
+        <v>1.4</v>
+      </c>
+      <c r="AR174">
+        <v>1.4</v>
+      </c>
+      <c r="AS174">
+        <v>1.17</v>
+      </c>
+      <c r="AT174">
+        <v>1.67</v>
+      </c>
+      <c r="AU174">
+        <v>1</v>
+      </c>
+      <c r="AV174">
+        <v>1.57</v>
+      </c>
+      <c r="AW174">
+        <v>2.57</v>
+      </c>
+      <c r="AX174">
+        <v>1.78</v>
+      </c>
+      <c r="AY174">
+        <v>7.3</v>
+      </c>
+      <c r="AZ174">
+        <v>2.5</v>
+      </c>
+      <c r="BA174">
+        <v>1.29</v>
+      </c>
+      <c r="BB174">
+        <v>1.52</v>
+      </c>
+      <c r="BC174">
+        <v>1.87</v>
+      </c>
+      <c r="BD174">
+        <v>2.4</v>
+      </c>
+      <c r="BE174">
+        <v>3.2</v>
+      </c>
+      <c r="BF174">
+        <v>3</v>
+      </c>
+      <c r="BG174">
+        <v>5</v>
+      </c>
+      <c r="BH174">
+        <v>1</v>
+      </c>
+      <c r="BI174">
+        <v>3</v>
+      </c>
+      <c r="BJ174">
+        <v>4</v>
+      </c>
+      <c r="BK174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>3722114</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F175">
+        <v>6</v>
+      </c>
+      <c r="G175" t="s">
+        <v>103</v>
+      </c>
+      <c r="H175" t="s">
+        <v>128</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>4</v>
+      </c>
+      <c r="N175">
+        <v>6</v>
+      </c>
+      <c r="O175" t="s">
+        <v>259</v>
+      </c>
+      <c r="P175" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q175">
+        <v>7</v>
+      </c>
+      <c r="R175">
+        <v>1</v>
+      </c>
+      <c r="S175">
+        <v>8</v>
+      </c>
+      <c r="T175">
+        <v>8.1</v>
+      </c>
+      <c r="U175">
+        <v>2.85</v>
+      </c>
+      <c r="V175">
+        <v>1.63</v>
+      </c>
+      <c r="W175">
+        <v>1.24</v>
+      </c>
+      <c r="X175">
+        <v>3.88</v>
+      </c>
+      <c r="Y175">
+        <v>2.12</v>
+      </c>
+      <c r="Z175">
+        <v>1.69</v>
+      </c>
+      <c r="AA175">
+        <v>4.6</v>
+      </c>
+      <c r="AB175">
+        <v>1.18</v>
+      </c>
+      <c r="AC175">
+        <v>13</v>
+      </c>
+      <c r="AD175">
+        <v>6</v>
+      </c>
+      <c r="AE175">
+        <v>1.22</v>
+      </c>
+      <c r="AF175">
+        <v>1.02</v>
+      </c>
+      <c r="AG175">
+        <v>25.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.1</v>
+      </c>
+      <c r="AI175">
+        <v>5.35</v>
+      </c>
+      <c r="AJ175">
+        <v>1.48</v>
+      </c>
+      <c r="AK175">
+        <v>2.75</v>
+      </c>
+      <c r="AL175">
+        <v>1.89</v>
+      </c>
+      <c r="AM175">
+        <v>1.87</v>
+      </c>
+      <c r="AN175">
+        <v>4.15</v>
+      </c>
+      <c r="AO175">
+        <v>1.14</v>
+      </c>
+      <c r="AP175">
+        <v>1.06</v>
+      </c>
+      <c r="AQ175">
+        <v>1.45</v>
+      </c>
+      <c r="AR175">
+        <v>0.8</v>
+      </c>
+      <c r="AS175">
+        <v>1.33</v>
+      </c>
+      <c r="AT175">
+        <v>1.17</v>
+      </c>
+      <c r="AU175">
+        <v>1.44</v>
+      </c>
+      <c r="AV175">
+        <v>1.85</v>
+      </c>
+      <c r="AW175">
+        <v>3.29</v>
+      </c>
+      <c r="AX175">
+        <v>4.2</v>
+      </c>
+      <c r="AY175">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ175">
+        <v>1.32</v>
+      </c>
+      <c r="BA175">
+        <v>1.22</v>
+      </c>
+      <c r="BB175">
+        <v>1.41</v>
+      </c>
+      <c r="BC175">
+        <v>1.68</v>
+      </c>
+      <c r="BD175">
+        <v>2.1</v>
+      </c>
+      <c r="BE175">
+        <v>2.75</v>
+      </c>
+      <c r="BF175">
+        <v>8</v>
+      </c>
+      <c r="BG175">
+        <v>7</v>
+      </c>
+      <c r="BH175">
+        <v>16</v>
+      </c>
+      <c r="BI175">
+        <v>4</v>
+      </c>
+      <c r="BJ175">
+        <v>24</v>
+      </c>
+      <c r="BK175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>3722111</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+      <c r="G176" t="s">
+        <v>132</v>
+      </c>
+      <c r="H176" t="s">
+        <v>125</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>260</v>
+      </c>
+      <c r="P176" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>3</v>
+      </c>
+      <c r="S176">
+        <v>7</v>
+      </c>
+      <c r="T176">
+        <v>2.15</v>
+      </c>
+      <c r="U176">
+        <v>2.48</v>
+      </c>
+      <c r="V176">
+        <v>4.55</v>
+      </c>
+      <c r="W176">
+        <v>1.26</v>
+      </c>
+      <c r="X176">
+        <v>3.7</v>
+      </c>
+      <c r="Y176">
+        <v>2.24</v>
+      </c>
+      <c r="Z176">
+        <v>1.62</v>
+      </c>
+      <c r="AA176">
+        <v>5</v>
+      </c>
+      <c r="AB176">
+        <v>1.16</v>
+      </c>
+      <c r="AC176">
+        <v>1.6</v>
+      </c>
+      <c r="AD176">
+        <v>4</v>
+      </c>
+      <c r="AE176">
+        <v>5.5</v>
+      </c>
+      <c r="AF176">
+        <v>1.02</v>
+      </c>
+      <c r="AG176">
+        <v>21.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.13</v>
+      </c>
+      <c r="AI176">
+        <v>4.85</v>
+      </c>
+      <c r="AJ176">
+        <v>1.58</v>
+      </c>
+      <c r="AK176">
+        <v>2.23</v>
+      </c>
+      <c r="AL176">
+        <v>1.56</v>
+      </c>
+      <c r="AM176">
+        <v>2.36</v>
+      </c>
+      <c r="AN176">
+        <v>1.25</v>
+      </c>
+      <c r="AO176">
+        <v>1.27</v>
+      </c>
+      <c r="AP176">
+        <v>2.33</v>
+      </c>
+      <c r="AQ176">
+        <v>2.4</v>
+      </c>
+      <c r="AR176">
+        <v>3</v>
+      </c>
+      <c r="AS176">
+        <v>2.5</v>
+      </c>
+      <c r="AT176">
+        <v>2.5</v>
+      </c>
+      <c r="AU176">
+        <v>2.79</v>
+      </c>
+      <c r="AV176">
+        <v>2.95</v>
+      </c>
+      <c r="AW176">
+        <v>5.74</v>
+      </c>
+      <c r="AX176">
+        <v>1.43</v>
+      </c>
+      <c r="AY176">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ176">
+        <v>3.6</v>
+      </c>
+      <c r="BA176">
+        <v>1.22</v>
+      </c>
+      <c r="BB176">
+        <v>1.41</v>
+      </c>
+      <c r="BC176">
+        <v>1.68</v>
+      </c>
+      <c r="BD176">
+        <v>2.1</v>
+      </c>
+      <c r="BE176">
+        <v>2.75</v>
+      </c>
+      <c r="BF176">
+        <v>7</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>8</v>
+      </c>
+      <c r="BI176">
+        <v>8</v>
+      </c>
+      <c r="BJ176">
+        <v>15</v>
+      </c>
+      <c r="BK176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>3722112</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F177">
+        <v>6</v>
+      </c>
+      <c r="G177" t="s">
+        <v>114</v>
+      </c>
+      <c r="H177" t="s">
+        <v>123</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>261</v>
+      </c>
+      <c r="P177" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q177">
+        <v>5</v>
+      </c>
+      <c r="R177">
+        <v>6</v>
+      </c>
+      <c r="S177">
+        <v>11</v>
+      </c>
+      <c r="T177">
+        <v>4.15</v>
+      </c>
+      <c r="U177">
+        <v>2.4</v>
+      </c>
+      <c r="V177">
+        <v>2.33</v>
+      </c>
+      <c r="W177">
+        <v>1.28</v>
+      </c>
+      <c r="X177">
+        <v>3.54</v>
+      </c>
+      <c r="Y177">
+        <v>2.32</v>
+      </c>
+      <c r="Z177">
+        <v>1.58</v>
+      </c>
+      <c r="AA177">
+        <v>5.3</v>
+      </c>
+      <c r="AB177">
+        <v>1.14</v>
+      </c>
+      <c r="AC177">
+        <v>4.33</v>
+      </c>
+      <c r="AD177">
+        <v>3.9</v>
+      </c>
+      <c r="AE177">
+        <v>1.75</v>
+      </c>
+      <c r="AF177">
+        <v>1.03</v>
+      </c>
+      <c r="AG177">
+        <v>17.75</v>
+      </c>
+      <c r="AH177">
+        <v>1.16</v>
+      </c>
+      <c r="AI177">
+        <v>4.7</v>
+      </c>
+      <c r="AJ177">
+        <v>1.63</v>
+      </c>
+      <c r="AK177">
+        <v>2.14</v>
+      </c>
+      <c r="AL177">
+        <v>1.56</v>
+      </c>
+      <c r="AM177">
+        <v>2.36</v>
+      </c>
+      <c r="AN177">
+        <v>2.04</v>
+      </c>
+      <c r="AO177">
+        <v>1.27</v>
+      </c>
+      <c r="AP177">
+        <v>1.27</v>
+      </c>
+      <c r="AQ177">
+        <v>0.78</v>
+      </c>
+      <c r="AR177">
+        <v>0.6</v>
+      </c>
+      <c r="AS177">
+        <v>0.7</v>
+      </c>
+      <c r="AT177">
+        <v>1</v>
+      </c>
+      <c r="AU177">
+        <v>1.47</v>
+      </c>
+      <c r="AV177">
+        <v>1.02</v>
+      </c>
+      <c r="AW177">
+        <v>2.49</v>
+      </c>
+      <c r="AX177">
+        <v>2.5</v>
+      </c>
+      <c r="AY177">
+        <v>7.3</v>
+      </c>
+      <c r="AZ177">
+        <v>1.78</v>
+      </c>
+      <c r="BA177">
+        <v>1.32</v>
+      </c>
+      <c r="BB177">
+        <v>1.57</v>
+      </c>
+      <c r="BC177">
+        <v>1.95</v>
+      </c>
+      <c r="BD177">
+        <v>2.55</v>
+      </c>
+      <c r="BE177">
+        <v>3.4</v>
+      </c>
+      <c r="BF177">
+        <v>3</v>
+      </c>
+      <c r="BG177">
+        <v>10</v>
+      </c>
+      <c r="BH177">
+        <v>7</v>
+      </c>
+      <c r="BI177">
+        <v>5</v>
+      </c>
+      <c r="BJ177">
+        <v>10</v>
+      </c>
+      <c r="BK177">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>3722113</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44866.70833333334</v>
+      </c>
+      <c r="F178">
+        <v>6</v>
+      </c>
+      <c r="G178" t="s">
+        <v>135</v>
+      </c>
+      <c r="H178" t="s">
+        <v>129</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>262</v>
+      </c>
+      <c r="P178" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q178">
+        <v>4</v>
+      </c>
+      <c r="R178">
+        <v>4</v>
+      </c>
+      <c r="S178">
+        <v>8</v>
+      </c>
+      <c r="T178">
+        <v>1.89</v>
+      </c>
+      <c r="U178">
+        <v>2.68</v>
+      </c>
+      <c r="V178">
+        <v>5.4</v>
+      </c>
+      <c r="W178">
+        <v>1.22</v>
+      </c>
+      <c r="X178">
+        <v>4.1</v>
+      </c>
+      <c r="Y178">
+        <v>2.06</v>
+      </c>
+      <c r="Z178">
+        <v>1.73</v>
+      </c>
+      <c r="AA178">
+        <v>4.35</v>
+      </c>
+      <c r="AB178">
+        <v>1.2</v>
+      </c>
+      <c r="AC178">
+        <v>1.5</v>
+      </c>
+      <c r="AD178">
+        <v>4.6</v>
+      </c>
+      <c r="AE178">
+        <v>5.8</v>
+      </c>
+      <c r="AF178">
+        <v>1.01</v>
+      </c>
+      <c r="AG178">
+        <v>27.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.09</v>
+      </c>
+      <c r="AI178">
+        <v>5.7</v>
+      </c>
+      <c r="AJ178">
+        <v>1.42</v>
+      </c>
+      <c r="AK178">
+        <v>2.98</v>
+      </c>
+      <c r="AL178">
+        <v>1.56</v>
+      </c>
+      <c r="AM178">
+        <v>2.36</v>
+      </c>
+      <c r="AN178">
+        <v>1.17</v>
+      </c>
+      <c r="AO178">
+        <v>1.22</v>
+      </c>
+      <c r="AP178">
+        <v>2.88</v>
+      </c>
+      <c r="AQ178">
+        <v>3</v>
+      </c>
+      <c r="AR178">
+        <v>2</v>
+      </c>
+      <c r="AS178">
+        <v>3</v>
+      </c>
+      <c r="AT178">
+        <v>1.67</v>
+      </c>
+      <c r="AU178">
+        <v>2.32</v>
+      </c>
+      <c r="AV178">
+        <v>1.99</v>
+      </c>
+      <c r="AW178">
+        <v>4.31</v>
+      </c>
+      <c r="AX178">
+        <v>1.31</v>
+      </c>
+      <c r="AY178">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ178">
+        <v>4.3</v>
+      </c>
+      <c r="BA178">
+        <v>1.22</v>
+      </c>
+      <c r="BB178">
+        <v>1.38</v>
+      </c>
+      <c r="BC178">
+        <v>1.65</v>
+      </c>
+      <c r="BD178">
+        <v>2.05</v>
+      </c>
+      <c r="BE178">
+        <v>2.6</v>
+      </c>
+      <c r="BF178">
+        <v>10</v>
+      </c>
+      <c r="BG178">
+        <v>6</v>
+      </c>
+      <c r="BH178">
+        <v>13</v>
+      </c>
+      <c r="BI178">
+        <v>3</v>
+      </c>
+      <c r="BJ178">
+        <v>23</v>
+      </c>
+      <c r="BK178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>3722117</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44867.61458333334</v>
+      </c>
+      <c r="F179">
+        <v>6</v>
+      </c>
+      <c r="G179" t="s">
+        <v>140</v>
+      </c>
+      <c r="H179" t="s">
+        <v>120</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>5</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>6</v>
+      </c>
+      <c r="O179" t="s">
+        <v>263</v>
+      </c>
+      <c r="P179" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q179">
+        <v>5</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>9</v>
+      </c>
+      <c r="T179">
+        <v>1.57</v>
+      </c>
+      <c r="U179">
+        <v>3.1</v>
+      </c>
+      <c r="V179">
+        <v>9</v>
+      </c>
+      <c r="W179">
+        <v>1.2</v>
+      </c>
+      <c r="X179">
+        <v>4.33</v>
+      </c>
+      <c r="Y179">
+        <v>1.91</v>
+      </c>
+      <c r="Z179">
+        <v>1.8</v>
+      </c>
+      <c r="AA179">
+        <v>4</v>
+      </c>
+      <c r="AB179">
+        <v>1.22</v>
+      </c>
+      <c r="AC179">
+        <v>1.2</v>
+      </c>
+      <c r="AD179">
+        <v>6.5</v>
+      </c>
+      <c r="AE179">
+        <v>12</v>
+      </c>
+      <c r="AF179">
+        <v>1.01</v>
+      </c>
+      <c r="AG179">
+        <v>31</v>
+      </c>
+      <c r="AH179">
+        <v>1.11</v>
+      </c>
+      <c r="AI179">
+        <v>7.2</v>
+      </c>
+      <c r="AJ179">
+        <v>1.36</v>
+      </c>
+      <c r="AK179">
+        <v>3.1</v>
+      </c>
+      <c r="AL179">
+        <v>1.8</v>
+      </c>
+      <c r="AM179">
+        <v>1.95</v>
+      </c>
+      <c r="AN179">
+        <v>1.04</v>
+      </c>
+      <c r="AO179">
+        <v>1.1</v>
+      </c>
+      <c r="AP179">
+        <v>4.5</v>
+      </c>
+      <c r="AQ179">
+        <v>2</v>
+      </c>
+      <c r="AR179">
+        <v>0.4</v>
+      </c>
+      <c r="AS179">
+        <v>2.17</v>
+      </c>
+      <c r="AT179">
+        <v>0.33</v>
+      </c>
+      <c r="AU179">
+        <v>2.73</v>
+      </c>
+      <c r="AV179">
+        <v>1.84</v>
+      </c>
+      <c r="AW179">
+        <v>4.57</v>
+      </c>
+      <c r="AX179">
+        <v>1.11</v>
+      </c>
+      <c r="AY179">
+        <v>12.5</v>
+      </c>
+      <c r="AZ179">
+        <v>9</v>
+      </c>
+      <c r="BA179">
+        <v>1.25</v>
+      </c>
+      <c r="BB179">
+        <v>1.47</v>
+      </c>
+      <c r="BC179">
+        <v>1.82</v>
+      </c>
+      <c r="BD179">
+        <v>2.38</v>
+      </c>
+      <c r="BE179">
+        <v>3.25</v>
+      </c>
+      <c r="BF179">
+        <v>10</v>
+      </c>
+      <c r="BG179">
+        <v>8</v>
+      </c>
+      <c r="BH179">
+        <v>17</v>
+      </c>
+      <c r="BI179">
+        <v>6</v>
+      </c>
+      <c r="BJ179">
+        <v>27</v>
+      </c>
+      <c r="BK179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>3722118</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44867.61458333334</v>
+      </c>
+      <c r="F180">
+        <v>6</v>
+      </c>
+      <c r="G180" t="s">
+        <v>138</v>
+      </c>
+      <c r="H180" t="s">
+        <v>121</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>4</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180" t="s">
+        <v>145</v>
+      </c>
+      <c r="P180" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q180">
+        <v>2</v>
+      </c>
+      <c r="R180">
+        <v>3</v>
+      </c>
+      <c r="S180">
+        <v>5</v>
+      </c>
+      <c r="T180">
+        <v>4.75</v>
+      </c>
+      <c r="U180">
+        <v>2.38</v>
+      </c>
+      <c r="V180">
+        <v>2.25</v>
+      </c>
+      <c r="W180">
+        <v>1.33</v>
+      </c>
+      <c r="X180">
+        <v>3.25</v>
+      </c>
+      <c r="Y180">
+        <v>2.5</v>
+      </c>
+      <c r="Z180">
+        <v>1.5</v>
+      </c>
+      <c r="AA180">
+        <v>6</v>
+      </c>
+      <c r="AB180">
+        <v>1.13</v>
+      </c>
+      <c r="AC180">
+        <v>4.75</v>
+      </c>
+      <c r="AD180">
+        <v>3.85</v>
+      </c>
+      <c r="AE180">
+        <v>1.67</v>
+      </c>
+      <c r="AF180">
+        <v>1.03</v>
+      </c>
+      <c r="AG180">
+        <v>15</v>
+      </c>
+      <c r="AH180">
+        <v>1.23</v>
+      </c>
+      <c r="AI180">
+        <v>4.4</v>
+      </c>
+      <c r="AJ180">
+        <v>1.67</v>
+      </c>
+      <c r="AK180">
+        <v>2.15</v>
+      </c>
+      <c r="AL180">
+        <v>1.7</v>
+      </c>
+      <c r="AM180">
+        <v>2.05</v>
+      </c>
+      <c r="AN180">
+        <v>2.05</v>
+      </c>
+      <c r="AO180">
+        <v>1.25</v>
+      </c>
+      <c r="AP180">
+        <v>1.21</v>
+      </c>
+      <c r="AQ180">
+        <v>1.2</v>
+      </c>
+      <c r="AR180">
+        <v>1.8</v>
+      </c>
+      <c r="AS180">
+        <v>1</v>
+      </c>
+      <c r="AT180">
+        <v>2</v>
+      </c>
+      <c r="AU180">
+        <v>1.05</v>
+      </c>
+      <c r="AV180">
+        <v>1.51</v>
+      </c>
+      <c r="AW180">
+        <v>2.56</v>
+      </c>
+      <c r="AX180">
+        <v>4.6</v>
+      </c>
+      <c r="AY180">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180">
+        <v>1.3</v>
+      </c>
+      <c r="BA180">
+        <v>1.35</v>
+      </c>
+      <c r="BB180">
+        <v>1.65</v>
+      </c>
+      <c r="BC180">
+        <v>2.12</v>
+      </c>
+      <c r="BD180">
+        <v>2.88</v>
+      </c>
+      <c r="BE180">
+        <v>4</v>
+      </c>
+      <c r="BF180">
+        <v>2</v>
+      </c>
+      <c r="BG180">
+        <v>9</v>
+      </c>
+      <c r="BH180">
+        <v>5</v>
+      </c>
+      <c r="BI180">
+        <v>4</v>
+      </c>
+      <c r="BJ180">
+        <v>7</v>
+      </c>
+      <c r="BK180">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>3722122</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44867.70833333334</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+      <c r="G181" t="s">
+        <v>115</v>
+      </c>
+      <c r="H181" t="s">
+        <v>117</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>148</v>
+      </c>
+      <c r="P181" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q181">
+        <v>3</v>
+      </c>
+      <c r="R181">
+        <v>6</v>
+      </c>
+      <c r="S181">
+        <v>9</v>
+      </c>
+      <c r="T181">
+        <v>4.75</v>
+      </c>
+      <c r="U181">
+        <v>2.3</v>
+      </c>
+      <c r="V181">
+        <v>2.25</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>3.25</v>
+      </c>
+      <c r="Y181">
+        <v>2.5</v>
+      </c>
+      <c r="Z181">
+        <v>1.5</v>
+      </c>
+      <c r="AA181">
+        <v>6.5</v>
+      </c>
+      <c r="AB181">
+        <v>1.11</v>
+      </c>
+      <c r="AC181">
+        <v>4.75</v>
+      </c>
+      <c r="AD181">
+        <v>3.85</v>
+      </c>
+      <c r="AE181">
+        <v>1.65</v>
+      </c>
+      <c r="AF181">
+        <v>1.03</v>
+      </c>
+      <c r="AG181">
+        <v>15</v>
+      </c>
+      <c r="AH181">
+        <v>1.23</v>
+      </c>
+      <c r="AI181">
+        <v>4.4</v>
+      </c>
+      <c r="AJ181">
+        <v>1.67</v>
+      </c>
+      <c r="AK181">
+        <v>2.15</v>
+      </c>
+      <c r="AL181">
+        <v>1.7</v>
+      </c>
+      <c r="AM181">
+        <v>2.05</v>
+      </c>
+      <c r="AN181">
+        <v>2.1</v>
+      </c>
+      <c r="AO181">
+        <v>1.25</v>
+      </c>
+      <c r="AP181">
+        <v>1.2</v>
+      </c>
+      <c r="AQ181">
+        <v>0.86</v>
+      </c>
+      <c r="AR181">
+        <v>1.6</v>
+      </c>
+      <c r="AS181">
+        <v>0.88</v>
+      </c>
+      <c r="AT181">
+        <v>1.5</v>
+      </c>
+      <c r="AU181">
+        <v>1.04</v>
+      </c>
+      <c r="AV181">
+        <v>1.3</v>
+      </c>
+      <c r="AW181">
+        <v>2.34</v>
+      </c>
+      <c r="AX181">
+        <v>3.45</v>
+      </c>
+      <c r="AY181">
+        <v>7.5</v>
+      </c>
+      <c r="AZ181">
+        <v>1.47</v>
+      </c>
+      <c r="BA181">
+        <v>1.43</v>
+      </c>
+      <c r="BB181">
+        <v>1.78</v>
+      </c>
+      <c r="BC181">
+        <v>2.35</v>
+      </c>
+      <c r="BD181">
+        <v>3.25</v>
+      </c>
+      <c r="BE181">
+        <v>4.7</v>
+      </c>
+      <c r="BF181">
+        <v>10</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>13</v>
+      </c>
+      <c r="BI181">
+        <v>12</v>
+      </c>
+      <c r="BJ181">
+        <v>23</v>
+      </c>
+      <c r="BK181">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>3722121</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44867.70833333334</v>
+      </c>
+      <c r="F182">
+        <v>6</v>
+      </c>
+      <c r="G182" t="s">
+        <v>142</v>
+      </c>
+      <c r="H182" t="s">
+        <v>119</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>264</v>
+      </c>
+      <c r="P182" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q182">
+        <v>7</v>
+      </c>
+      <c r="R182">
+        <v>1</v>
+      </c>
+      <c r="S182">
+        <v>8</v>
+      </c>
+      <c r="T182">
+        <v>1.62</v>
+      </c>
+      <c r="U182">
+        <v>2.88</v>
+      </c>
+      <c r="V182">
+        <v>9</v>
+      </c>
+      <c r="W182">
+        <v>1.22</v>
+      </c>
+      <c r="X182">
+        <v>4</v>
+      </c>
+      <c r="Y182">
+        <v>2</v>
+      </c>
+      <c r="Z182">
+        <v>1.73</v>
+      </c>
+      <c r="AA182">
+        <v>4.33</v>
+      </c>
+      <c r="AB182">
+        <v>1.2</v>
+      </c>
+      <c r="AC182">
+        <v>1.18</v>
+      </c>
+      <c r="AD182">
+        <v>6.5</v>
+      </c>
+      <c r="AE182">
+        <v>13</v>
+      </c>
+      <c r="AF182">
+        <v>1.01</v>
+      </c>
+      <c r="AG182">
+        <v>25</v>
+      </c>
+      <c r="AH182">
+        <v>1.13</v>
+      </c>
+      <c r="AI182">
+        <v>6.4</v>
+      </c>
+      <c r="AJ182">
+        <v>1.4</v>
+      </c>
+      <c r="AK182">
+        <v>2.9</v>
+      </c>
+      <c r="AL182">
+        <v>1.95</v>
+      </c>
+      <c r="AM182">
+        <v>1.8</v>
+      </c>
+      <c r="AN182">
+        <v>1.05</v>
+      </c>
+      <c r="AO182">
+        <v>1.1</v>
+      </c>
+      <c r="AP182">
+        <v>4.33</v>
+      </c>
+      <c r="AQ182">
+        <v>2.2</v>
+      </c>
+      <c r="AR182">
+        <v>1</v>
+      </c>
+      <c r="AS182">
+        <v>2.33</v>
+      </c>
+      <c r="AT182">
+        <v>0.83</v>
+      </c>
+      <c r="AU182">
+        <v>2.79</v>
+      </c>
+      <c r="AV182">
+        <v>1.31</v>
+      </c>
+      <c r="AW182">
+        <v>4.1</v>
+      </c>
+      <c r="AX182">
+        <v>1.08</v>
+      </c>
+      <c r="AY182">
+        <v>14</v>
+      </c>
+      <c r="AZ182">
+        <v>12</v>
+      </c>
+      <c r="BA182">
+        <v>1.33</v>
+      </c>
+      <c r="BB182">
+        <v>1.61</v>
+      </c>
+      <c r="BC182">
+        <v>2.06</v>
+      </c>
+      <c r="BD182">
+        <v>2.8</v>
+      </c>
+      <c r="BE182">
+        <v>3.9</v>
+      </c>
+      <c r="BF182">
+        <v>8</v>
+      </c>
+      <c r="BG182">
+        <v>3</v>
+      </c>
+      <c r="BH182">
+        <v>14</v>
+      </c>
+      <c r="BI182">
+        <v>5</v>
+      </c>
+      <c r="BJ182">
+        <v>22</v>
+      </c>
+      <c r="BK182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>3722123</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44867.70833333334</v>
+      </c>
+      <c r="F183">
+        <v>6</v>
+      </c>
+      <c r="G183" t="s">
+        <v>139</v>
+      </c>
+      <c r="H183" t="s">
+        <v>118</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>193</v>
+      </c>
+      <c r="P183" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>2</v>
+      </c>
+      <c r="T183">
+        <v>4.5</v>
+      </c>
+      <c r="U183">
+        <v>2.38</v>
+      </c>
+      <c r="V183">
+        <v>2.3</v>
+      </c>
+      <c r="W183">
+        <v>1.3</v>
+      </c>
+      <c r="X183">
+        <v>3.4</v>
+      </c>
+      <c r="Y183">
+        <v>2.5</v>
+      </c>
+      <c r="Z183">
+        <v>1.5</v>
+      </c>
+      <c r="AA183">
+        <v>6</v>
+      </c>
+      <c r="AB183">
+        <v>1.13</v>
+      </c>
+      <c r="AC183">
+        <v>4.33</v>
+      </c>
+      <c r="AD183">
+        <v>3.75</v>
+      </c>
+      <c r="AE183">
+        <v>1.75</v>
+      </c>
+      <c r="AF183">
+        <v>1.03</v>
+      </c>
+      <c r="AG183">
+        <v>16</v>
+      </c>
+      <c r="AH183">
+        <v>1.21</v>
+      </c>
+      <c r="AI183">
+        <v>4.7</v>
+      </c>
+      <c r="AJ183">
+        <v>1.65</v>
+      </c>
+      <c r="AK183">
+        <v>2.2</v>
+      </c>
+      <c r="AL183">
+        <v>1.67</v>
+      </c>
+      <c r="AM183">
+        <v>2.1</v>
+      </c>
+      <c r="AN183">
+        <v>2</v>
+      </c>
+      <c r="AO183">
+        <v>1.24</v>
+      </c>
+      <c r="AP183">
+        <v>1.23</v>
+      </c>
+      <c r="AQ183">
+        <v>0.6</v>
+      </c>
+      <c r="AR183">
+        <v>2.2</v>
+      </c>
+      <c r="AS183">
+        <v>0.5</v>
+      </c>
+      <c r="AT183">
+        <v>2.33</v>
+      </c>
+      <c r="AU183">
+        <v>1.83</v>
+      </c>
+      <c r="AV183">
+        <v>2.1</v>
+      </c>
+      <c r="AW183">
+        <v>3.93</v>
+      </c>
+      <c r="AX183">
+        <v>3.75</v>
+      </c>
+      <c r="AY183">
+        <v>8</v>
+      </c>
+      <c r="AZ183">
+        <v>1.4</v>
+      </c>
+      <c r="BA183">
+        <v>1.25</v>
+      </c>
+      <c r="BB183">
+        <v>1.47</v>
+      </c>
+      <c r="BC183">
+        <v>1.82</v>
+      </c>
+      <c r="BD183">
+        <v>2.38</v>
+      </c>
+      <c r="BE183">
+        <v>3.25</v>
+      </c>
+      <c r="BF183">
+        <v>3</v>
+      </c>
+      <c r="BG183">
+        <v>6</v>
+      </c>
+      <c r="BH183">
+        <v>13</v>
+      </c>
+      <c r="BI183">
+        <v>2</v>
+      </c>
+      <c r="BJ183">
+        <v>16</v>
+      </c>
+      <c r="BK183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>3722119</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44867.70833333334</v>
+      </c>
+      <c r="F184">
+        <v>6</v>
+      </c>
+      <c r="G184" t="s">
+        <v>141</v>
+      </c>
+      <c r="H184" t="s">
+        <v>99</v>
+      </c>
+      <c r="I184">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>265</v>
+      </c>
+      <c r="P184" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q184">
+        <v>9</v>
+      </c>
+      <c r="R184">
+        <v>3</v>
+      </c>
+      <c r="S184">
+        <v>12</v>
+      </c>
+      <c r="T184">
+        <v>1.8</v>
+      </c>
+      <c r="U184">
+        <v>2.6</v>
+      </c>
+      <c r="V184">
+        <v>7.5</v>
+      </c>
+      <c r="W184">
+        <v>1.29</v>
+      </c>
+      <c r="X184">
+        <v>3.5</v>
+      </c>
+      <c r="Y184">
+        <v>2.25</v>
+      </c>
+      <c r="Z184">
+        <v>1.57</v>
+      </c>
+      <c r="AA184">
+        <v>5.5</v>
+      </c>
+      <c r="AB184">
+        <v>1.14</v>
+      </c>
+      <c r="AC184">
+        <v>1.3</v>
+      </c>
+      <c r="AD184">
+        <v>5.25</v>
+      </c>
+      <c r="AE184">
+        <v>9</v>
+      </c>
+      <c r="AF184">
+        <v>1.02</v>
+      </c>
+      <c r="AG184">
+        <v>19</v>
+      </c>
+      <c r="AH184">
+        <v>1.17</v>
+      </c>
+      <c r="AI184">
+        <v>5.4</v>
+      </c>
+      <c r="AJ184">
+        <v>1.6</v>
+      </c>
+      <c r="AK184">
+        <v>2.3</v>
+      </c>
+      <c r="AL184">
+        <v>1.91</v>
+      </c>
+      <c r="AM184">
+        <v>1.91</v>
+      </c>
+      <c r="AN184">
+        <v>1.07</v>
+      </c>
+      <c r="AO184">
+        <v>1.16</v>
+      </c>
+      <c r="AP184">
+        <v>3.25</v>
+      </c>
+      <c r="AQ184">
+        <v>2</v>
+      </c>
+      <c r="AR184">
+        <v>1.55</v>
+      </c>
+      <c r="AS184">
+        <v>2.17</v>
+      </c>
+      <c r="AT184">
+        <v>1.42</v>
+      </c>
+      <c r="AU184">
+        <v>1.68</v>
+      </c>
+      <c r="AV184">
+        <v>1.33</v>
+      </c>
+      <c r="AW184">
+        <v>3.01</v>
+      </c>
+      <c r="AX184">
+        <v>1.1</v>
+      </c>
+      <c r="AY184">
+        <v>13</v>
+      </c>
+      <c r="AZ184">
+        <v>10</v>
+      </c>
+      <c r="BA184">
+        <v>1.28</v>
+      </c>
+      <c r="BB184">
+        <v>1.5</v>
+      </c>
+      <c r="BC184">
+        <v>1.9</v>
+      </c>
+      <c r="BD184">
+        <v>2.5</v>
+      </c>
+      <c r="BE184">
+        <v>3.45</v>
+      </c>
+      <c r="BF184">
+        <v>7</v>
+      </c>
+      <c r="BG184">
+        <v>3</v>
+      </c>
+      <c r="BH184">
+        <v>16</v>
+      </c>
+      <c r="BI184">
+        <v>5</v>
+      </c>
+      <c r="BJ184">
+        <v>23</v>
+      </c>
+      <c r="BK184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>3722120</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44867.70833333334</v>
+      </c>
+      <c r="F185">
+        <v>6</v>
+      </c>
+      <c r="G185" t="s">
+        <v>137</v>
+      </c>
+      <c r="H185" t="s">
+        <v>122</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>266</v>
+      </c>
+      <c r="P185" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q185">
+        <v>3</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>5</v>
+      </c>
+      <c r="T185">
+        <v>2.1</v>
+      </c>
+      <c r="U185">
+        <v>2.4</v>
+      </c>
+      <c r="V185">
+        <v>5.5</v>
+      </c>
+      <c r="W185">
+        <v>1.3</v>
+      </c>
+      <c r="X185">
+        <v>3.4</v>
+      </c>
+      <c r="Y185">
+        <v>2.5</v>
+      </c>
+      <c r="Z185">
+        <v>1.5</v>
+      </c>
+      <c r="AA185">
+        <v>6</v>
+      </c>
+      <c r="AB185">
+        <v>1.13</v>
+      </c>
+      <c r="AC185">
+        <v>1.5</v>
+      </c>
+      <c r="AD185">
+        <v>4.2</v>
+      </c>
+      <c r="AE185">
+        <v>6</v>
+      </c>
+      <c r="AF185">
+        <v>1.03</v>
+      </c>
+      <c r="AG185">
+        <v>15</v>
+      </c>
+      <c r="AH185">
+        <v>1.23</v>
+      </c>
+      <c r="AI185">
+        <v>4.45</v>
+      </c>
+      <c r="AJ185">
+        <v>1.7</v>
+      </c>
+      <c r="AK185">
+        <v>2.1</v>
+      </c>
+      <c r="AL185">
+        <v>1.75</v>
+      </c>
+      <c r="AM185">
+        <v>2</v>
+      </c>
+      <c r="AN185">
+        <v>1.15</v>
+      </c>
+      <c r="AO185">
+        <v>1.21</v>
+      </c>
+      <c r="AP185">
+        <v>2.4</v>
+      </c>
+      <c r="AQ185">
+        <v>1.4</v>
+      </c>
+      <c r="AR185">
+        <v>1.2</v>
+      </c>
+      <c r="AS185">
+        <v>1.67</v>
+      </c>
+      <c r="AT185">
+        <v>1</v>
+      </c>
+      <c r="AU185">
+        <v>1.49</v>
+      </c>
+      <c r="AV185">
+        <v>1.22</v>
+      </c>
+      <c r="AW185">
+        <v>2.71</v>
+      </c>
+      <c r="AX185">
+        <v>1.45</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>3.5</v>
+      </c>
+      <c r="BA185">
+        <v>1.29</v>
+      </c>
+      <c r="BB185">
+        <v>1.53</v>
+      </c>
+      <c r="BC185">
+        <v>1.92</v>
+      </c>
+      <c r="BD185">
+        <v>2.55</v>
+      </c>
+      <c r="BE185">
+        <v>3.5</v>
+      </c>
+      <c r="BF185">
+        <v>8</v>
+      </c>
+      <c r="BG185">
+        <v>6</v>
+      </c>
+      <c r="BH185">
+        <v>8</v>
+      </c>
+      <c r="BI185">
+        <v>9</v>
+      </c>
+      <c r="BJ185">
+        <v>16</v>
+      </c>
+      <c r="BK185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>3722124</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44867.70833333334</v>
+      </c>
+      <c r="F186">
+        <v>6</v>
+      </c>
+      <c r="G186" t="s">
+        <v>100</v>
+      </c>
+      <c r="H186" t="s">
+        <v>109</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>6</v>
+      </c>
+      <c r="N186">
+        <v>7</v>
+      </c>
+      <c r="O186" t="s">
+        <v>267</v>
+      </c>
+      <c r="P186" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q186">
+        <v>3</v>
+      </c>
+      <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
+        <v>5</v>
+      </c>
+      <c r="T186">
+        <v>4.5</v>
+      </c>
+      <c r="U186">
+        <v>2.4</v>
+      </c>
+      <c r="V186">
+        <v>2.2</v>
+      </c>
+      <c r="W186">
+        <v>1.29</v>
+      </c>
+      <c r="X186">
+        <v>3.5</v>
+      </c>
+      <c r="Y186">
+        <v>2.25</v>
+      </c>
+      <c r="Z186">
+        <v>1.57</v>
+      </c>
+      <c r="AA186">
+        <v>5.5</v>
+      </c>
+      <c r="AB186">
+        <v>1.14</v>
+      </c>
+      <c r="AC186">
+        <v>4.75</v>
+      </c>
+      <c r="AD186">
+        <v>4</v>
+      </c>
+      <c r="AE186">
+        <v>1.65</v>
+      </c>
+      <c r="AF186">
+        <v>1.02</v>
+      </c>
+      <c r="AG186">
+        <v>18</v>
+      </c>
+      <c r="AH186">
+        <v>1.19</v>
+      </c>
+      <c r="AI186">
+        <v>5</v>
+      </c>
+      <c r="AJ186">
+        <v>1.65</v>
+      </c>
+      <c r="AK186">
+        <v>2.2</v>
+      </c>
+      <c r="AL186">
+        <v>1.62</v>
+      </c>
+      <c r="AM186">
+        <v>2.2</v>
+      </c>
+      <c r="AN186">
+        <v>2.1</v>
+      </c>
+      <c r="AO186">
+        <v>1.24</v>
+      </c>
+      <c r="AP186">
+        <v>1.2</v>
+      </c>
+      <c r="AQ186">
+        <v>1.27</v>
+      </c>
+      <c r="AR186">
+        <v>2.56</v>
+      </c>
+      <c r="AS186">
+        <v>1.17</v>
+      </c>
+      <c r="AT186">
+        <v>2.6</v>
+      </c>
+      <c r="AU186">
+        <v>2.03</v>
+      </c>
+      <c r="AV186">
+        <v>1.51</v>
+      </c>
+      <c r="AW186">
+        <v>3.54</v>
+      </c>
+      <c r="AX186">
+        <v>3.8</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>1.38</v>
+      </c>
+      <c r="BA186">
+        <v>1.2</v>
+      </c>
+      <c r="BB186">
+        <v>1.38</v>
+      </c>
+      <c r="BC186">
+        <v>1.68</v>
+      </c>
+      <c r="BD186">
+        <v>2.14</v>
+      </c>
+      <c r="BE186">
+        <v>2.85</v>
+      </c>
+      <c r="BF186">
+        <v>3</v>
+      </c>
+      <c r="BG186">
+        <v>11</v>
+      </c>
+      <c r="BH186">
+        <v>7</v>
+      </c>
+      <c r="BI186">
+        <v>7</v>
+      </c>
+      <c r="BJ186">
+        <v>10</v>
+      </c>
+      <c r="BK186">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -820,6 +820,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['55', '66']</t>
   </si>
   <si>
@@ -878,9 +881,6 @@
   </si>
   <si>
     <t>['6', '57']</t>
-  </si>
-  <si>
-    <t>['7']</t>
   </si>
   <si>
     <t>['81', '86']</t>
@@ -1461,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1705,7 @@
         <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1896,7 +1896,7 @@
         <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2087,7 +2087,7 @@
         <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2469,7 +2469,7 @@
         <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -2851,7 +2851,7 @@
         <v>148</v>
       </c>
       <c r="P8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -5143,7 +5143,7 @@
         <v>156</v>
       </c>
       <c r="P20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5525,7 +5525,7 @@
         <v>158</v>
       </c>
       <c r="P22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -6098,7 +6098,7 @@
         <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -6480,7 +6480,7 @@
         <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6862,7 +6862,7 @@
         <v>163</v>
       </c>
       <c r="P29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7053,7 +7053,7 @@
         <v>164</v>
       </c>
       <c r="P30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7244,7 +7244,7 @@
         <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7435,7 +7435,7 @@
         <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7626,7 +7626,7 @@
         <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8008,7 +8008,7 @@
         <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8199,7 +8199,7 @@
         <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q36">
         <v>10</v>
@@ -8581,7 +8581,7 @@
         <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -9154,7 +9154,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9345,7 +9345,7 @@
         <v>174</v>
       </c>
       <c r="P42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9536,7 +9536,7 @@
         <v>175</v>
       </c>
       <c r="P43" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -19176,7 +19176,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -19850,7 +19850,7 @@
         <v>211</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19937,7 +19937,7 @@
         <v>0</v>
       </c>
       <c r="AS97">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>0.5</v>
@@ -20892,7 +20892,7 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -22041,7 +22041,7 @@
         <v>1.17</v>
       </c>
       <c r="AT108">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>2.29</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT114">
         <v>1.42</v>
@@ -23479,7 +23479,7 @@
         <v>225</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24524,7 +24524,7 @@
         <v>1.17</v>
       </c>
       <c r="AT121">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU121">
         <v>2.24</v>
@@ -25007,7 +25007,7 @@
         <v>231</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25479,7 +25479,7 @@
         <v>1.67</v>
       </c>
       <c r="AT126">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU126">
         <v>1.26</v>
@@ -26816,7 +26816,7 @@
         <v>2.17</v>
       </c>
       <c r="AT133">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU133">
         <v>1.94</v>
@@ -27490,7 +27490,7 @@
         <v>240</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27771,7 +27771,7 @@
         <v>2.6</v>
       </c>
       <c r="AT138">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU138">
         <v>2.41</v>
@@ -28532,7 +28532,7 @@
         <v>1.33</v>
       </c>
       <c r="AS142">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT142">
         <v>2.17</v>
@@ -29296,7 +29296,7 @@
         <v>2.71</v>
       </c>
       <c r="AS146">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT146">
         <v>2.6</v>
@@ -30060,7 +30060,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT150">
         <v>1.67</v>
@@ -31400,7 +31400,7 @@
         <v>1.42</v>
       </c>
       <c r="AT157">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU157">
         <v>1.72</v>
@@ -32161,7 +32161,7 @@
         <v>1.4</v>
       </c>
       <c r="AS161">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT161">
         <v>1.17</v>
@@ -33689,7 +33689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS169">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT169">
         <v>1.17</v>
@@ -34456,7 +34456,7 @@
         <v>1</v>
       </c>
       <c r="AT173">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU173">
         <v>2.08</v>
@@ -35894,7 +35894,7 @@
         <v>264</v>
       </c>
       <c r="P181" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="Q181">
         <v>9</v>
@@ -36172,7 +36172,7 @@
         <v>1.2</v>
       </c>
       <c r="AS182">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT182">
         <v>1</v>
@@ -36467,7 +36467,7 @@
         <v>150</v>
       </c>
       <c r="P184" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36748,7 +36748,7 @@
         <v>0.5</v>
       </c>
       <c r="AT185">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU185">
         <v>1.83</v>
@@ -36991,6 +36991,388 @@
       </c>
       <c r="BK186">
         <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>4576418</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44971.70833333334</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>122</v>
+      </c>
+      <c r="H187" t="s">
+        <v>135</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>145</v>
+      </c>
+      <c r="P187" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q187">
+        <v>4</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187">
+        <v>9</v>
+      </c>
+      <c r="T187">
+        <v>3.1</v>
+      </c>
+      <c r="U187">
+        <v>2.5</v>
+      </c>
+      <c r="V187">
+        <v>2.88</v>
+      </c>
+      <c r="W187">
+        <v>1.25</v>
+      </c>
+      <c r="X187">
+        <v>3.75</v>
+      </c>
+      <c r="Y187">
+        <v>2.2</v>
+      </c>
+      <c r="Z187">
+        <v>1.62</v>
+      </c>
+      <c r="AA187">
+        <v>5</v>
+      </c>
+      <c r="AB187">
+        <v>1.17</v>
+      </c>
+      <c r="AC187">
+        <v>2.3</v>
+      </c>
+      <c r="AD187">
+        <v>3.72</v>
+      </c>
+      <c r="AE187">
+        <v>2.74</v>
+      </c>
+      <c r="AF187">
+        <v>1.02</v>
+      </c>
+      <c r="AG187">
+        <v>22.5</v>
+      </c>
+      <c r="AH187">
+        <v>1.14</v>
+      </c>
+      <c r="AI187">
+        <v>5.65</v>
+      </c>
+      <c r="AJ187">
+        <v>1.73</v>
+      </c>
+      <c r="AK187">
+        <v>2</v>
+      </c>
+      <c r="AL187">
+        <v>1.44</v>
+      </c>
+      <c r="AM187">
+        <v>2.63</v>
+      </c>
+      <c r="AN187">
+        <v>1.56</v>
+      </c>
+      <c r="AO187">
+        <v>1.28</v>
+      </c>
+      <c r="AP187">
+        <v>1.48</v>
+      </c>
+      <c r="AQ187">
+        <v>2.33</v>
+      </c>
+      <c r="AR187">
+        <v>3</v>
+      </c>
+      <c r="AS187">
+        <v>2</v>
+      </c>
+      <c r="AT187">
+        <v>3</v>
+      </c>
+      <c r="AU187">
+        <v>1.82</v>
+      </c>
+      <c r="AV187">
+        <v>2.1</v>
+      </c>
+      <c r="AW187">
+        <v>3.92</v>
+      </c>
+      <c r="AX187">
+        <v>2.04</v>
+      </c>
+      <c r="AY187">
+        <v>7.5</v>
+      </c>
+      <c r="AZ187">
+        <v>2.02</v>
+      </c>
+      <c r="BA187">
+        <v>1.3</v>
+      </c>
+      <c r="BB187">
+        <v>1.5</v>
+      </c>
+      <c r="BC187">
+        <v>1.81</v>
+      </c>
+      <c r="BD187">
+        <v>2.25</v>
+      </c>
+      <c r="BE187">
+        <v>2.95</v>
+      </c>
+      <c r="BF187">
+        <v>5</v>
+      </c>
+      <c r="BG187">
+        <v>8</v>
+      </c>
+      <c r="BH187">
+        <v>5</v>
+      </c>
+      <c r="BI187">
+        <v>11</v>
+      </c>
+      <c r="BJ187">
+        <v>10</v>
+      </c>
+      <c r="BK187">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>4576417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44971.70833333334</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>137</v>
+      </c>
+      <c r="H188" t="s">
+        <v>126</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>268</v>
+      </c>
+      <c r="P188" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>8</v>
+      </c>
+      <c r="S188">
+        <v>11</v>
+      </c>
+      <c r="T188">
+        <v>3.4</v>
+      </c>
+      <c r="U188">
+        <v>2.1</v>
+      </c>
+      <c r="V188">
+        <v>3.2</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>2.75</v>
+      </c>
+      <c r="Y188">
+        <v>3</v>
+      </c>
+      <c r="Z188">
+        <v>1.36</v>
+      </c>
+      <c r="AA188">
+        <v>8</v>
+      </c>
+      <c r="AB188">
+        <v>1.08</v>
+      </c>
+      <c r="AC188">
+        <v>2.16</v>
+      </c>
+      <c r="AD188">
+        <v>3.39</v>
+      </c>
+      <c r="AE188">
+        <v>3.24</v>
+      </c>
+      <c r="AF188">
+        <v>1.07</v>
+      </c>
+      <c r="AG188">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH188">
+        <v>1.34</v>
+      </c>
+      <c r="AI188">
+        <v>3.4</v>
+      </c>
+      <c r="AJ188">
+        <v>1.85</v>
+      </c>
+      <c r="AK188">
+        <v>1.89</v>
+      </c>
+      <c r="AL188">
+        <v>1.75</v>
+      </c>
+      <c r="AM188">
+        <v>2</v>
+      </c>
+      <c r="AN188">
+        <v>1.47</v>
+      </c>
+      <c r="AO188">
+        <v>1.32</v>
+      </c>
+      <c r="AP188">
+        <v>1.46</v>
+      </c>
+      <c r="AQ188">
+        <v>1.67</v>
+      </c>
+      <c r="AR188">
+        <v>1.83</v>
+      </c>
+      <c r="AS188">
+        <v>1.86</v>
+      </c>
+      <c r="AT188">
+        <v>1.57</v>
+      </c>
+      <c r="AU188">
+        <v>1.61</v>
+      </c>
+      <c r="AV188">
+        <v>1.33</v>
+      </c>
+      <c r="AW188">
+        <v>2.94</v>
+      </c>
+      <c r="AX188">
+        <v>2.12</v>
+      </c>
+      <c r="AY188">
+        <v>7.5</v>
+      </c>
+      <c r="AZ188">
+        <v>1.95</v>
+      </c>
+      <c r="BA188">
+        <v>1.33</v>
+      </c>
+      <c r="BB188">
+        <v>1.55</v>
+      </c>
+      <c r="BC188">
+        <v>1.89</v>
+      </c>
+      <c r="BD188">
+        <v>2.38</v>
+      </c>
+      <c r="BE188">
+        <v>3.1</v>
+      </c>
+      <c r="BF188">
+        <v>5</v>
+      </c>
+      <c r="BG188">
+        <v>4</v>
+      </c>
+      <c r="BH188">
+        <v>5</v>
+      </c>
+      <c r="BI188">
+        <v>9</v>
+      </c>
+      <c r="BJ188">
+        <v>10</v>
+      </c>
+      <c r="BK188">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1101,6 +1101,9 @@
   <si>
     <t>['20', '59', '69', '73', '88', '90+2']</t>
   </si>
+  <si>
+    <t>['51', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13443,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -15356,7 +15359,7 @@
         <v>0.5</v>
       </c>
       <c r="AT73">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU73">
         <v>3.17</v>
@@ -17457,7 +17460,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU84">
         <v>1.34</v>
@@ -17836,7 +17839,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT86">
         <v>1.67</v>
@@ -18794,7 +18797,7 @@
         <v>1.42</v>
       </c>
       <c r="AT91">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU91">
         <v>1.96</v>
@@ -18982,7 +18985,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT92">
         <v>0.88</v>
@@ -20128,7 +20131,7 @@
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT98">
         <v>1.17</v>
@@ -21465,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT105">
         <v>0.83</v>
@@ -22423,7 +22426,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -23566,7 +23569,7 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23951,7 +23954,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -24333,7 +24336,7 @@
         <v>0.5</v>
       </c>
       <c r="AT120">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -25667,7 +25670,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT127">
         <v>0.83</v>
@@ -26813,7 +26816,7 @@
         <v>2</v>
       </c>
       <c r="AS133">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT133">
         <v>1.86</v>
@@ -27389,7 +27392,7 @@
         <v>0.83</v>
       </c>
       <c r="AT136">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU136">
         <v>0.84</v>
@@ -27768,7 +27771,7 @@
         <v>3</v>
       </c>
       <c r="AS138">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT138">
         <v>2</v>
@@ -28535,7 +28538,7 @@
         <v>1.86</v>
       </c>
       <c r="AT142">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU142">
         <v>2.12</v>
@@ -29105,7 +29108,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT145">
         <v>0.83</v>
@@ -29299,7 +29302,7 @@
         <v>2</v>
       </c>
       <c r="AT146">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU146">
         <v>1.85</v>
@@ -29681,7 +29684,7 @@
         <v>0.83</v>
       </c>
       <c r="AT148">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU148">
         <v>1.32</v>
@@ -31018,7 +31021,7 @@
         <v>1</v>
       </c>
       <c r="AT155">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU155">
         <v>1.83</v>
@@ -31970,7 +31973,7 @@
         <v>2.5</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT160">
         <v>2.33</v>
@@ -32352,7 +32355,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT162">
         <v>0.5</v>
@@ -32734,7 +32737,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT164">
         <v>2</v>
@@ -34265,7 +34268,7 @@
         <v>0.83</v>
       </c>
       <c r="AT172">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU172">
         <v>2.01</v>
@@ -35981,7 +35984,7 @@
         <v>1.55</v>
       </c>
       <c r="AS181">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT181">
         <v>1.42</v>
@@ -36557,7 +36560,7 @@
         <v>0.88</v>
       </c>
       <c r="AT184">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU184">
         <v>1.04</v>
@@ -36939,7 +36942,7 @@
         <v>1.17</v>
       </c>
       <c r="AT186">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AU186">
         <v>2.03</v>
@@ -37373,6 +37376,388 @@
       </c>
       <c r="BK188">
         <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>4576419</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44972.70833333334</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>129</v>
+      </c>
+      <c r="H189" t="s">
+        <v>109</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>145</v>
+      </c>
+      <c r="P189" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>7</v>
+      </c>
+      <c r="S189">
+        <v>10</v>
+      </c>
+      <c r="T189">
+        <v>4.33</v>
+      </c>
+      <c r="U189">
+        <v>2.25</v>
+      </c>
+      <c r="V189">
+        <v>2.5</v>
+      </c>
+      <c r="W189">
+        <v>1.33</v>
+      </c>
+      <c r="X189">
+        <v>3.25</v>
+      </c>
+      <c r="Y189">
+        <v>2.63</v>
+      </c>
+      <c r="Z189">
+        <v>1.44</v>
+      </c>
+      <c r="AA189">
+        <v>7</v>
+      </c>
+      <c r="AB189">
+        <v>1.1</v>
+      </c>
+      <c r="AC189">
+        <v>3.8</v>
+      </c>
+      <c r="AD189">
+        <v>3.4</v>
+      </c>
+      <c r="AE189">
+        <v>2</v>
+      </c>
+      <c r="AF189">
+        <v>1.05</v>
+      </c>
+      <c r="AG189">
+        <v>13</v>
+      </c>
+      <c r="AH189">
+        <v>1.27</v>
+      </c>
+      <c r="AI189">
+        <v>4</v>
+      </c>
+      <c r="AJ189">
+        <v>1.67</v>
+      </c>
+      <c r="AK189">
+        <v>2.1</v>
+      </c>
+      <c r="AL189">
+        <v>1.7</v>
+      </c>
+      <c r="AM189">
+        <v>2.05</v>
+      </c>
+      <c r="AN189">
+        <v>1.82</v>
+      </c>
+      <c r="AO189">
+        <v>1.29</v>
+      </c>
+      <c r="AP189">
+        <v>1.25</v>
+      </c>
+      <c r="AQ189">
+        <v>1.83</v>
+      </c>
+      <c r="AR189">
+        <v>2.6</v>
+      </c>
+      <c r="AS189">
+        <v>1.57</v>
+      </c>
+      <c r="AT189">
+        <v>2.64</v>
+      </c>
+      <c r="AU189">
+        <v>1.24</v>
+      </c>
+      <c r="AV189">
+        <v>1.51</v>
+      </c>
+      <c r="AW189">
+        <v>2.75</v>
+      </c>
+      <c r="AX189">
+        <v>2.55</v>
+      </c>
+      <c r="AY189">
+        <v>7.5</v>
+      </c>
+      <c r="AZ189">
+        <v>1.68</v>
+      </c>
+      <c r="BA189">
+        <v>1.35</v>
+      </c>
+      <c r="BB189">
+        <v>1.58</v>
+      </c>
+      <c r="BC189">
+        <v>1.93</v>
+      </c>
+      <c r="BD189">
+        <v>2.43</v>
+      </c>
+      <c r="BE189">
+        <v>3.2</v>
+      </c>
+      <c r="BF189">
+        <v>2</v>
+      </c>
+      <c r="BG189">
+        <v>5</v>
+      </c>
+      <c r="BH189">
+        <v>3</v>
+      </c>
+      <c r="BI189">
+        <v>10</v>
+      </c>
+      <c r="BJ189">
+        <v>5</v>
+      </c>
+      <c r="BK189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>4576420</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44972.70833333334</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>117</v>
+      </c>
+      <c r="H190" t="s">
+        <v>139</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>196</v>
+      </c>
+      <c r="P190" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q190">
+        <v>5</v>
+      </c>
+      <c r="R190">
+        <v>10</v>
+      </c>
+      <c r="S190">
+        <v>15</v>
+      </c>
+      <c r="T190">
+        <v>3.2</v>
+      </c>
+      <c r="U190">
+        <v>2.2</v>
+      </c>
+      <c r="V190">
+        <v>3.25</v>
+      </c>
+      <c r="W190">
+        <v>1.4</v>
+      </c>
+      <c r="X190">
+        <v>2.75</v>
+      </c>
+      <c r="Y190">
+        <v>2.75</v>
+      </c>
+      <c r="Z190">
+        <v>1.4</v>
+      </c>
+      <c r="AA190">
+        <v>8</v>
+      </c>
+      <c r="AB190">
+        <v>1.08</v>
+      </c>
+      <c r="AC190">
+        <v>2.5</v>
+      </c>
+      <c r="AD190">
+        <v>3.25</v>
+      </c>
+      <c r="AE190">
+        <v>2.8</v>
+      </c>
+      <c r="AF190">
+        <v>1.06</v>
+      </c>
+      <c r="AG190">
+        <v>11</v>
+      </c>
+      <c r="AH190">
+        <v>1.31</v>
+      </c>
+      <c r="AI190">
+        <v>3.6</v>
+      </c>
+      <c r="AJ190">
+        <v>1.73</v>
+      </c>
+      <c r="AK190">
+        <v>2</v>
+      </c>
+      <c r="AL190">
+        <v>1.7</v>
+      </c>
+      <c r="AM190">
+        <v>2.05</v>
+      </c>
+      <c r="AN190">
+        <v>1.43</v>
+      </c>
+      <c r="AO190">
+        <v>1.32</v>
+      </c>
+      <c r="AP190">
+        <v>1.5</v>
+      </c>
+      <c r="AQ190">
+        <v>1.5</v>
+      </c>
+      <c r="AR190">
+        <v>2.17</v>
+      </c>
+      <c r="AS190">
+        <v>1.71</v>
+      </c>
+      <c r="AT190">
+        <v>1.86</v>
+      </c>
+      <c r="AU190">
+        <v>1.47</v>
+      </c>
+      <c r="AV190">
+        <v>1.97</v>
+      </c>
+      <c r="AW190">
+        <v>3.44</v>
+      </c>
+      <c r="AX190">
+        <v>2.18</v>
+      </c>
+      <c r="AY190">
+        <v>7.5</v>
+      </c>
+      <c r="AZ190">
+        <v>1.91</v>
+      </c>
+      <c r="BA190">
+        <v>1.34</v>
+      </c>
+      <c r="BB190">
+        <v>1.58</v>
+      </c>
+      <c r="BC190">
+        <v>1.93</v>
+      </c>
+      <c r="BD190">
+        <v>2.45</v>
+      </c>
+      <c r="BE190">
+        <v>3.25</v>
+      </c>
+      <c r="BF190">
+        <v>3</v>
+      </c>
+      <c r="BG190">
+        <v>9</v>
+      </c>
+      <c r="BH190">
+        <v>12</v>
+      </c>
+      <c r="BI190">
+        <v>13</v>
+      </c>
+      <c r="BJ190">
+        <v>15</v>
+      </c>
+      <c r="BK190">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -823,6 +823,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['4', '14']</t>
+  </si>
+  <si>
     <t>['55', '66']</t>
   </si>
   <si>
@@ -1103,6 +1106,12 @@
   </si>
   <si>
     <t>['51', '88']</t>
+  </si>
+  <si>
+    <t>['21', '36', '47', '55', '67']</t>
+  </si>
+  <si>
+    <t>['40', '65']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1717,7 @@
         <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1899,7 +1908,7 @@
         <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2090,7 +2099,7 @@
         <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2472,7 +2481,7 @@
         <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -2854,7 +2863,7 @@
         <v>148</v>
       </c>
       <c r="P8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -5146,7 +5155,7 @@
         <v>156</v>
       </c>
       <c r="P20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5528,7 +5537,7 @@
         <v>158</v>
       </c>
       <c r="P22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -6101,7 +6110,7 @@
         <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -6483,7 +6492,7 @@
         <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6674,7 +6683,7 @@
         <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6865,7 +6874,7 @@
         <v>163</v>
       </c>
       <c r="P29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7056,7 +7065,7 @@
         <v>164</v>
       </c>
       <c r="P30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7247,7 +7256,7 @@
         <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7438,7 +7447,7 @@
         <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7629,7 +7638,7 @@
         <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8011,7 +8020,7 @@
         <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8202,7 +8211,7 @@
         <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q36">
         <v>10</v>
@@ -8584,7 +8593,7 @@
         <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -9157,7 +9166,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9348,7 +9357,7 @@
         <v>174</v>
       </c>
       <c r="P42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9730,7 +9739,7 @@
         <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10303,7 +10312,7 @@
         <v>177</v>
       </c>
       <c r="P47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10876,7 +10885,7 @@
         <v>180</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11067,7 +11076,7 @@
         <v>145</v>
       </c>
       <c r="P51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11258,7 +11267,7 @@
         <v>181</v>
       </c>
       <c r="P52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11640,7 +11649,7 @@
         <v>145</v>
       </c>
       <c r="P54" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11831,7 +11840,7 @@
         <v>183</v>
       </c>
       <c r="P55" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12022,7 +12031,7 @@
         <v>178</v>
       </c>
       <c r="P56" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12213,7 +12222,7 @@
         <v>176</v>
       </c>
       <c r="P57" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12404,7 +12413,7 @@
         <v>145</v>
       </c>
       <c r="P58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12595,7 +12604,7 @@
         <v>184</v>
       </c>
       <c r="P59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12786,7 +12795,7 @@
         <v>160</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13359,7 +13368,7 @@
         <v>187</v>
       </c>
       <c r="P63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -14887,7 +14896,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15078,7 +15087,7 @@
         <v>195</v>
       </c>
       <c r="P72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15269,7 +15278,7 @@
         <v>196</v>
       </c>
       <c r="P73" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q73">
         <v>12</v>
@@ -15460,7 +15469,7 @@
         <v>197</v>
       </c>
       <c r="P74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15651,7 +15660,7 @@
         <v>198</v>
       </c>
       <c r="P75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15842,7 +15851,7 @@
         <v>199</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16033,7 +16042,7 @@
         <v>200</v>
       </c>
       <c r="P77" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16415,7 +16424,7 @@
         <v>202</v>
       </c>
       <c r="P79" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16797,7 +16806,7 @@
         <v>203</v>
       </c>
       <c r="P81" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17179,7 +17188,7 @@
         <v>204</v>
       </c>
       <c r="P83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17370,7 +17379,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17561,7 +17570,7 @@
         <v>205</v>
       </c>
       <c r="P85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17943,7 +17952,7 @@
         <v>207</v>
       </c>
       <c r="P87" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18325,7 +18334,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -19280,7 +19289,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19370,7 +19379,7 @@
         <v>0.33</v>
       </c>
       <c r="AT94">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU94">
         <v>0</v>
@@ -19471,7 +19480,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19662,7 +19671,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19853,7 +19862,7 @@
         <v>211</v>
       </c>
       <c r="P97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20426,7 +20435,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20513,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT100">
         <v>1.17</v>
@@ -20617,7 +20626,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20999,7 +21008,7 @@
         <v>215</v>
       </c>
       <c r="P103" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -21190,7 +21199,7 @@
         <v>216</v>
       </c>
       <c r="P104" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21659,10 +21668,10 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT106">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -21763,7 +21772,7 @@
         <v>145</v>
       </c>
       <c r="P107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -22232,7 +22241,7 @@
         <v>3</v>
       </c>
       <c r="AS109">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22336,7 +22345,7 @@
         <v>145</v>
       </c>
       <c r="P110" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22909,7 +22918,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -22999,7 +23008,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU113">
         <v>0</v>
@@ -23100,7 +23109,7 @@
         <v>223</v>
       </c>
       <c r="P114" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23291,7 +23300,7 @@
         <v>224</v>
       </c>
       <c r="P115" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23482,7 +23491,7 @@
         <v>225</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23760,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="AS117">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT117">
         <v>2</v>
@@ -23864,7 +23873,7 @@
         <v>227</v>
       </c>
       <c r="P118" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24246,7 +24255,7 @@
         <v>228</v>
       </c>
       <c r="P120" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24437,7 +24446,7 @@
         <v>229</v>
       </c>
       <c r="P121" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24628,7 +24637,7 @@
         <v>145</v>
       </c>
       <c r="P122" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24718,7 +24727,7 @@
         <v>0.7</v>
       </c>
       <c r="AT122">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU122">
         <v>1.81</v>
@@ -25010,7 +25019,7 @@
         <v>231</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25479,7 +25488,7 @@
         <v>1.5</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT126">
         <v>1.57</v>
@@ -25965,7 +25974,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26055,7 +26064,7 @@
         <v>1</v>
       </c>
       <c r="AT129">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU129">
         <v>2.51</v>
@@ -26243,7 +26252,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT130">
         <v>0.7</v>
@@ -27007,7 +27016,7 @@
         <v>2</v>
       </c>
       <c r="AS134">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -27302,7 +27311,7 @@
         <v>239</v>
       </c>
       <c r="P136" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27493,7 +27502,7 @@
         <v>240</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -28257,7 +28266,7 @@
         <v>242</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28448,7 +28457,7 @@
         <v>145</v>
       </c>
       <c r="P142" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28639,7 +28648,7 @@
         <v>243</v>
       </c>
       <c r="P143" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28729,7 +28738,7 @@
         <v>1</v>
       </c>
       <c r="AT143">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU143">
         <v>0.93</v>
@@ -28830,7 +28839,7 @@
         <v>145</v>
       </c>
       <c r="P144" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29021,7 +29030,7 @@
         <v>244</v>
       </c>
       <c r="P145" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29212,7 +29221,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29403,7 +29412,7 @@
         <v>245</v>
       </c>
       <c r="P147" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29490,7 +29499,7 @@
         <v>1</v>
       </c>
       <c r="AS147">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT147">
         <v>1</v>
@@ -29785,7 +29794,7 @@
         <v>145</v>
       </c>
       <c r="P149" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29976,7 +29985,7 @@
         <v>246</v>
       </c>
       <c r="P150" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30066,7 +30075,7 @@
         <v>1.57</v>
       </c>
       <c r="AT150">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU150">
         <v>1.72</v>
@@ -30167,7 +30176,7 @@
         <v>247</v>
       </c>
       <c r="P151" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30358,7 +30367,7 @@
         <v>248</v>
       </c>
       <c r="P152" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30549,7 +30558,7 @@
         <v>145</v>
       </c>
       <c r="P153" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30740,7 +30749,7 @@
         <v>249</v>
       </c>
       <c r="P154" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30830,7 +30839,7 @@
         <v>0.7</v>
       </c>
       <c r="AT154">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU154">
         <v>1.64</v>
@@ -30931,7 +30940,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -31313,7 +31322,7 @@
         <v>145</v>
       </c>
       <c r="P157" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31504,7 +31513,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31695,7 +31704,7 @@
         <v>251</v>
       </c>
       <c r="P159" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31785,7 +31794,7 @@
         <v>2</v>
       </c>
       <c r="AT159">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU159">
         <v>2.02</v>
@@ -32077,7 +32086,7 @@
         <v>252</v>
       </c>
       <c r="P161" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32268,7 +32277,7 @@
         <v>253</v>
       </c>
       <c r="P162" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32650,7 +32659,7 @@
         <v>145</v>
       </c>
       <c r="P164" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32928,7 +32937,7 @@
         <v>0.88</v>
       </c>
       <c r="AS165">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT165">
         <v>0.7</v>
@@ -33032,7 +33041,7 @@
         <v>145</v>
       </c>
       <c r="P166" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33122,7 +33131,7 @@
         <v>1</v>
       </c>
       <c r="AT166">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AU166">
         <v>1.85</v>
@@ -33223,7 +33232,7 @@
         <v>256</v>
       </c>
       <c r="P167" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -33414,7 +33423,7 @@
         <v>145</v>
       </c>
       <c r="P168" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33883,7 +33892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS170">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT170">
         <v>1</v>
@@ -33987,7 +33996,7 @@
         <v>258</v>
       </c>
       <c r="P171" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34369,7 +34378,7 @@
         <v>143</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34560,7 +34569,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -34650,7 +34659,7 @@
         <v>1.17</v>
       </c>
       <c r="AT174">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU174">
         <v>1</v>
@@ -34751,7 +34760,7 @@
         <v>259</v>
       </c>
       <c r="P175" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -35133,7 +35142,7 @@
         <v>261</v>
       </c>
       <c r="P177" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35411,10 +35420,10 @@
         <v>3</v>
       </c>
       <c r="AS178">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT178">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU178">
         <v>2.79</v>
@@ -35602,7 +35611,7 @@
         <v>0.4</v>
       </c>
       <c r="AS179">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT179">
         <v>0.33</v>
@@ -35706,7 +35715,7 @@
         <v>145</v>
       </c>
       <c r="P180" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q180">
         <v>2</v>
@@ -36279,7 +36288,7 @@
         <v>266</v>
       </c>
       <c r="P183" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36470,7 +36479,7 @@
         <v>150</v>
       </c>
       <c r="P184" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36661,7 +36670,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36852,7 +36861,7 @@
         <v>267</v>
       </c>
       <c r="P186" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37043,7 +37052,7 @@
         <v>145</v>
       </c>
       <c r="P187" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37425,7 +37434,7 @@
         <v>145</v>
       </c>
       <c r="P189" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37758,6 +37767,388 @@
       </c>
       <c r="BK190">
         <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>4576421</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44978.70833333334</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>132</v>
+      </c>
+      <c r="H191" t="s">
+        <v>140</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>4</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>5</v>
+      </c>
+      <c r="N191">
+        <v>7</v>
+      </c>
+      <c r="O191" t="s">
+        <v>269</v>
+      </c>
+      <c r="P191" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q191">
+        <v>4</v>
+      </c>
+      <c r="R191">
+        <v>3</v>
+      </c>
+      <c r="S191">
+        <v>7</v>
+      </c>
+      <c r="T191">
+        <v>3</v>
+      </c>
+      <c r="U191">
+        <v>2.3</v>
+      </c>
+      <c r="V191">
+        <v>3.25</v>
+      </c>
+      <c r="W191">
+        <v>1.3</v>
+      </c>
+      <c r="X191">
+        <v>3.4</v>
+      </c>
+      <c r="Y191">
+        <v>2.5</v>
+      </c>
+      <c r="Z191">
+        <v>1.5</v>
+      </c>
+      <c r="AA191">
+        <v>6</v>
+      </c>
+      <c r="AB191">
+        <v>1.13</v>
+      </c>
+      <c r="AC191">
+        <v>4.08</v>
+      </c>
+      <c r="AD191">
+        <v>5.9</v>
+      </c>
+      <c r="AE191">
+        <v>1.44</v>
+      </c>
+      <c r="AF191">
+        <v>1.03</v>
+      </c>
+      <c r="AG191">
+        <v>15</v>
+      </c>
+      <c r="AH191">
+        <v>1.22</v>
+      </c>
+      <c r="AI191">
+        <v>4.5</v>
+      </c>
+      <c r="AJ191">
+        <v>1.7</v>
+      </c>
+      <c r="AK191">
+        <v>2.1</v>
+      </c>
+      <c r="AL191">
+        <v>1.53</v>
+      </c>
+      <c r="AM191">
+        <v>2.38</v>
+      </c>
+      <c r="AN191">
+        <v>1.43</v>
+      </c>
+      <c r="AO191">
+        <v>1.31</v>
+      </c>
+      <c r="AP191">
+        <v>1.6</v>
+      </c>
+      <c r="AQ191">
+        <v>2.5</v>
+      </c>
+      <c r="AR191">
+        <v>2.17</v>
+      </c>
+      <c r="AS191">
+        <v>2.14</v>
+      </c>
+      <c r="AT191">
+        <v>2.29</v>
+      </c>
+      <c r="AU191">
+        <v>2.5</v>
+      </c>
+      <c r="AV191">
+        <v>1.73</v>
+      </c>
+      <c r="AW191">
+        <v>4.23</v>
+      </c>
+      <c r="AX191">
+        <v>1.83</v>
+      </c>
+      <c r="AY191">
+        <v>7</v>
+      </c>
+      <c r="AZ191">
+        <v>2.3</v>
+      </c>
+      <c r="BA191">
+        <v>1.43</v>
+      </c>
+      <c r="BB191">
+        <v>1.72</v>
+      </c>
+      <c r="BC191">
+        <v>2.14</v>
+      </c>
+      <c r="BD191">
+        <v>2.8</v>
+      </c>
+      <c r="BE191">
+        <v>3.85</v>
+      </c>
+      <c r="BF191">
+        <v>6</v>
+      </c>
+      <c r="BG191">
+        <v>7</v>
+      </c>
+      <c r="BH191">
+        <v>4</v>
+      </c>
+      <c r="BI191">
+        <v>3</v>
+      </c>
+      <c r="BJ191">
+        <v>10</v>
+      </c>
+      <c r="BK191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>4576422</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44978.70833333334</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>124</v>
+      </c>
+      <c r="H192" t="s">
+        <v>130</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>145</v>
+      </c>
+      <c r="P192" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q192">
+        <v>4</v>
+      </c>
+      <c r="R192">
+        <v>9</v>
+      </c>
+      <c r="S192">
+        <v>13</v>
+      </c>
+      <c r="T192">
+        <v>3.6</v>
+      </c>
+      <c r="U192">
+        <v>2.3</v>
+      </c>
+      <c r="V192">
+        <v>2.75</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>3.25</v>
+      </c>
+      <c r="Y192">
+        <v>2.63</v>
+      </c>
+      <c r="Z192">
+        <v>1.44</v>
+      </c>
+      <c r="AA192">
+        <v>6.5</v>
+      </c>
+      <c r="AB192">
+        <v>1.11</v>
+      </c>
+      <c r="AC192">
+        <v>6.21</v>
+      </c>
+      <c r="AD192">
+        <v>6.67</v>
+      </c>
+      <c r="AE192">
+        <v>1.25</v>
+      </c>
+      <c r="AF192">
+        <v>1.04</v>
+      </c>
+      <c r="AG192">
+        <v>13</v>
+      </c>
+      <c r="AH192">
+        <v>1.24</v>
+      </c>
+      <c r="AI192">
+        <v>4.25</v>
+      </c>
+      <c r="AJ192">
+        <v>1.7</v>
+      </c>
+      <c r="AK192">
+        <v>2.1</v>
+      </c>
+      <c r="AL192">
+        <v>1.62</v>
+      </c>
+      <c r="AM192">
+        <v>2.2</v>
+      </c>
+      <c r="AN192">
+        <v>1.74</v>
+      </c>
+      <c r="AO192">
+        <v>1.29</v>
+      </c>
+      <c r="AP192">
+        <v>1.36</v>
+      </c>
+      <c r="AQ192">
+        <v>1.67</v>
+      </c>
+      <c r="AR192">
+        <v>2.5</v>
+      </c>
+      <c r="AS192">
+        <v>1.43</v>
+      </c>
+      <c r="AT192">
+        <v>2.57</v>
+      </c>
+      <c r="AU192">
+        <v>1.27</v>
+      </c>
+      <c r="AV192">
+        <v>2.37</v>
+      </c>
+      <c r="AW192">
+        <v>3.64</v>
+      </c>
+      <c r="AX192">
+        <v>2.35</v>
+      </c>
+      <c r="AY192">
+        <v>7</v>
+      </c>
+      <c r="AZ192">
+        <v>1.82</v>
+      </c>
+      <c r="BA192">
+        <v>1.57</v>
+      </c>
+      <c r="BB192">
+        <v>1.94</v>
+      </c>
+      <c r="BC192">
+        <v>2.48</v>
+      </c>
+      <c r="BD192">
+        <v>3.35</v>
+      </c>
+      <c r="BE192">
+        <v>4.9</v>
+      </c>
+      <c r="BF192">
+        <v>2</v>
+      </c>
+      <c r="BG192">
+        <v>11</v>
+      </c>
+      <c r="BH192">
+        <v>4</v>
+      </c>
+      <c r="BI192">
+        <v>8</v>
+      </c>
+      <c r="BJ192">
+        <v>6</v>
+      </c>
+      <c r="BK192">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1473,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19567,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT95">
         <v>1</v>
@@ -19761,7 +19761,7 @@
         <v>0.83</v>
       </c>
       <c r="AT96">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -20713,7 +20713,7 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT101">
         <v>3</v>
@@ -21289,7 +21289,7 @@
         <v>0.83</v>
       </c>
       <c r="AT104">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21862,7 +21862,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -22432,7 +22432,7 @@
         <v>3</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT110">
         <v>1.57</v>
@@ -23772,7 +23772,7 @@
         <v>2.29</v>
       </c>
       <c r="AT117">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU117">
         <v>0</v>
@@ -23960,7 +23960,7 @@
         <v>3</v>
       </c>
       <c r="AS118">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT118">
         <v>1.71</v>
@@ -25297,7 +25297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS125">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT125">
         <v>1.17</v>
@@ -25870,7 +25870,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT128">
         <v>0.83</v>
@@ -26634,7 +26634,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
         <v>0.33</v>
@@ -27207,7 +27207,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT135">
         <v>0.88</v>
@@ -28165,7 +28165,7 @@
         <v>0.88</v>
       </c>
       <c r="AT140">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AU140">
         <v>1.14</v>
@@ -28929,7 +28929,7 @@
         <v>0.33</v>
       </c>
       <c r="AT144">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU144">
         <v>1.5</v>
@@ -30457,7 +30457,7 @@
         <v>1.17</v>
       </c>
       <c r="AT152">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU152">
         <v>2.62</v>
@@ -30648,7 +30648,7 @@
         <v>0.83</v>
       </c>
       <c r="AT153">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU153">
         <v>1.9</v>
@@ -31791,7 +31791,7 @@
         <v>2.5</v>
       </c>
       <c r="AS159">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT159">
         <v>2.29</v>
@@ -31985,7 +31985,7 @@
         <v>1.71</v>
       </c>
       <c r="AT160">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AU160">
         <v>1.63</v>
@@ -32555,7 +32555,7 @@
         <v>1.6</v>
       </c>
       <c r="AS163">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT163">
         <v>1.33</v>
@@ -32749,7 +32749,7 @@
         <v>1.57</v>
       </c>
       <c r="AT164">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AU164">
         <v>1.14</v>
@@ -34083,7 +34083,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT171">
         <v>0.83</v>
@@ -35041,7 +35041,7 @@
         <v>3</v>
       </c>
       <c r="AT176">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU176">
         <v>2.32</v>
@@ -35805,7 +35805,7 @@
         <v>1</v>
       </c>
       <c r="AT180">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU180">
         <v>1.05</v>
@@ -36375,7 +36375,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT183">
         <v>0.83</v>
@@ -38149,6 +38149,388 @@
       </c>
       <c r="BK192">
         <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>4576423</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44979.70833333334</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>120</v>
+      </c>
+      <c r="H193" t="s">
+        <v>141</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>176</v>
+      </c>
+      <c r="P193" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q193">
+        <v>2</v>
+      </c>
+      <c r="R193">
+        <v>4</v>
+      </c>
+      <c r="S193">
+        <v>6</v>
+      </c>
+      <c r="T193">
+        <v>4.5</v>
+      </c>
+      <c r="U193">
+        <v>2.3</v>
+      </c>
+      <c r="V193">
+        <v>2.38</v>
+      </c>
+      <c r="W193">
+        <v>1.33</v>
+      </c>
+      <c r="X193">
+        <v>3.25</v>
+      </c>
+      <c r="Y193">
+        <v>2.5</v>
+      </c>
+      <c r="Z193">
+        <v>1.5</v>
+      </c>
+      <c r="AA193">
+        <v>6.5</v>
+      </c>
+      <c r="AB193">
+        <v>1.11</v>
+      </c>
+      <c r="AC193">
+        <v>5.02</v>
+      </c>
+      <c r="AD193">
+        <v>3.17</v>
+      </c>
+      <c r="AE193">
+        <v>1.68</v>
+      </c>
+      <c r="AF193">
+        <v>1.03</v>
+      </c>
+      <c r="AG193">
+        <v>15</v>
+      </c>
+      <c r="AH193">
+        <v>1.23</v>
+      </c>
+      <c r="AI193">
+        <v>4.35</v>
+      </c>
+      <c r="AJ193">
+        <v>1.6</v>
+      </c>
+      <c r="AK193">
+        <v>2.35</v>
+      </c>
+      <c r="AL193">
+        <v>1.67</v>
+      </c>
+      <c r="AM193">
+        <v>2.1</v>
+      </c>
+      <c r="AN193">
+        <v>2.12</v>
+      </c>
+      <c r="AO193">
+        <v>1.24</v>
+      </c>
+      <c r="AP193">
+        <v>1.23</v>
+      </c>
+      <c r="AQ193">
+        <v>2</v>
+      </c>
+      <c r="AR193">
+        <v>2.33</v>
+      </c>
+      <c r="AS193">
+        <v>1.86</v>
+      </c>
+      <c r="AT193">
+        <v>2.14</v>
+      </c>
+      <c r="AU193">
+        <v>1.71</v>
+      </c>
+      <c r="AV193">
+        <v>1.84</v>
+      </c>
+      <c r="AW193">
+        <v>3.55</v>
+      </c>
+      <c r="AX193">
+        <v>3.15</v>
+      </c>
+      <c r="AY193">
+        <v>7.5</v>
+      </c>
+      <c r="AZ193">
+        <v>1.5</v>
+      </c>
+      <c r="BA193">
+        <v>1.42</v>
+      </c>
+      <c r="BB193">
+        <v>1.71</v>
+      </c>
+      <c r="BC193">
+        <v>2.12</v>
+      </c>
+      <c r="BD193">
+        <v>2.75</v>
+      </c>
+      <c r="BE193">
+        <v>3.7</v>
+      </c>
+      <c r="BF193">
+        <v>5</v>
+      </c>
+      <c r="BG193">
+        <v>4</v>
+      </c>
+      <c r="BH193">
+        <v>3</v>
+      </c>
+      <c r="BI193">
+        <v>9</v>
+      </c>
+      <c r="BJ193">
+        <v>8</v>
+      </c>
+      <c r="BK193">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>4576424</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44979.70833333334</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>125</v>
+      </c>
+      <c r="H194" t="s">
+        <v>133</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>197</v>
+      </c>
+      <c r="P194" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q194">
+        <v>6</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>6</v>
+      </c>
+      <c r="T194">
+        <v>2.4</v>
+      </c>
+      <c r="U194">
+        <v>2.2</v>
+      </c>
+      <c r="V194">
+        <v>5</v>
+      </c>
+      <c r="W194">
+        <v>1.4</v>
+      </c>
+      <c r="X194">
+        <v>2.75</v>
+      </c>
+      <c r="Y194">
+        <v>3</v>
+      </c>
+      <c r="Z194">
+        <v>1.36</v>
+      </c>
+      <c r="AA194">
+        <v>8</v>
+      </c>
+      <c r="AB194">
+        <v>1.08</v>
+      </c>
+      <c r="AC194">
+        <v>1.87</v>
+      </c>
+      <c r="AD194">
+        <v>3.39</v>
+      </c>
+      <c r="AE194">
+        <v>3.71</v>
+      </c>
+      <c r="AF194">
+        <v>1.06</v>
+      </c>
+      <c r="AG194">
+        <v>10</v>
+      </c>
+      <c r="AH194">
+        <v>1.34</v>
+      </c>
+      <c r="AI194">
+        <v>3.4</v>
+      </c>
+      <c r="AJ194">
+        <v>1.9</v>
+      </c>
+      <c r="AK194">
+        <v>1.9</v>
+      </c>
+      <c r="AL194">
+        <v>1.91</v>
+      </c>
+      <c r="AM194">
+        <v>1.91</v>
+      </c>
+      <c r="AN194">
+        <v>1.2</v>
+      </c>
+      <c r="AO194">
+        <v>1.29</v>
+      </c>
+      <c r="AP194">
+        <v>1.95</v>
+      </c>
+      <c r="AQ194">
+        <v>1.67</v>
+      </c>
+      <c r="AR194">
+        <v>2</v>
+      </c>
+      <c r="AS194">
+        <v>1.86</v>
+      </c>
+      <c r="AT194">
+        <v>1.71</v>
+      </c>
+      <c r="AU194">
+        <v>1.73</v>
+      </c>
+      <c r="AV194">
+        <v>1.63</v>
+      </c>
+      <c r="AW194">
+        <v>3.36</v>
+      </c>
+      <c r="AX194">
+        <v>1.56</v>
+      </c>
+      <c r="AY194">
+        <v>7.5</v>
+      </c>
+      <c r="AZ194">
+        <v>2.9</v>
+      </c>
+      <c r="BA194">
+        <v>1.43</v>
+      </c>
+      <c r="BB194">
+        <v>1.71</v>
+      </c>
+      <c r="BC194">
+        <v>2.12</v>
+      </c>
+      <c r="BD194">
+        <v>2.75</v>
+      </c>
+      <c r="BE194">
+        <v>3.75</v>
+      </c>
+      <c r="BF194">
+        <v>5</v>
+      </c>
+      <c r="BG194">
+        <v>5</v>
+      </c>
+      <c r="BH194">
+        <v>9</v>
+      </c>
+      <c r="BI194">
+        <v>4</v>
+      </c>
+      <c r="BJ194">
+        <v>14</v>
+      </c>
+      <c r="BK194">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="368">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,12 @@
     <t>['4', '14']</t>
   </si>
   <si>
+    <t>['38', '45+2', '57', '71', '77']</t>
+  </si>
+  <si>
+    <t>['43', '53']</t>
+  </si>
+  <si>
     <t>['55', '66']</t>
   </si>
   <si>
@@ -1473,7 +1479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1723,7 @@
         <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1908,7 +1914,7 @@
         <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2099,7 +2105,7 @@
         <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2481,7 +2487,7 @@
         <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -2863,7 +2869,7 @@
         <v>148</v>
       </c>
       <c r="P8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -5155,7 +5161,7 @@
         <v>156</v>
       </c>
       <c r="P20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5537,7 +5543,7 @@
         <v>158</v>
       </c>
       <c r="P22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -6110,7 +6116,7 @@
         <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -6492,7 +6498,7 @@
         <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6683,7 +6689,7 @@
         <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6874,7 +6880,7 @@
         <v>163</v>
       </c>
       <c r="P29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7065,7 +7071,7 @@
         <v>164</v>
       </c>
       <c r="P30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7256,7 +7262,7 @@
         <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7447,7 +7453,7 @@
         <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7638,7 +7644,7 @@
         <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8020,7 +8026,7 @@
         <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8211,7 +8217,7 @@
         <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q36">
         <v>10</v>
@@ -8593,7 +8599,7 @@
         <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -9166,7 +9172,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9357,7 +9363,7 @@
         <v>174</v>
       </c>
       <c r="P42" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9739,7 +9745,7 @@
         <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10312,7 +10318,7 @@
         <v>177</v>
       </c>
       <c r="P47" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10885,7 +10891,7 @@
         <v>180</v>
       </c>
       <c r="P50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11076,7 +11082,7 @@
         <v>145</v>
       </c>
       <c r="P51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11267,7 +11273,7 @@
         <v>181</v>
       </c>
       <c r="P52" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11649,7 +11655,7 @@
         <v>145</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11840,7 +11846,7 @@
         <v>183</v>
       </c>
       <c r="P55" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12031,7 +12037,7 @@
         <v>178</v>
       </c>
       <c r="P56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12222,7 +12228,7 @@
         <v>176</v>
       </c>
       <c r="P57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12413,7 +12419,7 @@
         <v>145</v>
       </c>
       <c r="P58" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12604,7 +12610,7 @@
         <v>184</v>
       </c>
       <c r="P59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12795,7 +12801,7 @@
         <v>160</v>
       </c>
       <c r="P60" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13368,7 +13374,7 @@
         <v>187</v>
       </c>
       <c r="P63" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13455,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT63">
         <v>0.5</v>
@@ -14896,7 +14902,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15087,7 +15093,7 @@
         <v>195</v>
       </c>
       <c r="P72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15278,7 +15284,7 @@
         <v>196</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q73">
         <v>12</v>
@@ -15368,7 +15374,7 @@
         <v>0.5</v>
       </c>
       <c r="AT73">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU73">
         <v>3.17</v>
@@ -15469,7 +15475,7 @@
         <v>197</v>
       </c>
       <c r="P74" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15660,7 +15666,7 @@
         <v>198</v>
       </c>
       <c r="P75" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15851,7 +15857,7 @@
         <v>199</v>
       </c>
       <c r="P76" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16042,7 +16048,7 @@
         <v>200</v>
       </c>
       <c r="P77" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16424,7 +16430,7 @@
         <v>202</v>
       </c>
       <c r="P79" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16806,7 +16812,7 @@
         <v>203</v>
       </c>
       <c r="P81" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17188,7 +17194,7 @@
         <v>204</v>
       </c>
       <c r="P83" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17379,7 +17385,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17469,7 +17475,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU84">
         <v>1.34</v>
@@ -17570,7 +17576,7 @@
         <v>205</v>
       </c>
       <c r="P85" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17848,7 +17854,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT86">
         <v>1.67</v>
@@ -17952,7 +17958,7 @@
         <v>207</v>
       </c>
       <c r="P87" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18334,7 +18340,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18806,7 +18812,7 @@
         <v>1.42</v>
       </c>
       <c r="AT91">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>1.96</v>
@@ -18994,7 +19000,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT92">
         <v>0.88</v>
@@ -19289,7 +19295,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19480,7 +19486,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19671,7 +19677,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19862,7 +19868,7 @@
         <v>211</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20140,7 +20146,7 @@
         <v>1.83</v>
       </c>
       <c r="AS98">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT98">
         <v>1.17</v>
@@ -20435,7 +20441,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20626,7 +20632,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -21008,7 +21014,7 @@
         <v>215</v>
       </c>
       <c r="P103" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -21199,7 +21205,7 @@
         <v>216</v>
       </c>
       <c r="P104" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21477,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT105">
         <v>0.83</v>
@@ -21772,7 +21778,7 @@
         <v>145</v>
       </c>
       <c r="P107" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -22345,7 +22351,7 @@
         <v>145</v>
       </c>
       <c r="P110" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22435,7 +22441,7 @@
         <v>1.71</v>
       </c>
       <c r="AT110">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -22918,7 +22924,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23109,7 +23115,7 @@
         <v>223</v>
       </c>
       <c r="P114" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23300,7 +23306,7 @@
         <v>224</v>
       </c>
       <c r="P115" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23491,7 +23497,7 @@
         <v>225</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23578,7 +23584,7 @@
         <v>1</v>
       </c>
       <c r="AS116">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1</v>
@@ -23873,7 +23879,7 @@
         <v>227</v>
       </c>
       <c r="P118" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23963,7 +23969,7 @@
         <v>2.14</v>
       </c>
       <c r="AT118">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -24255,7 +24261,7 @@
         <v>228</v>
       </c>
       <c r="P120" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24345,7 +24351,7 @@
         <v>0.5</v>
       </c>
       <c r="AT120">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -24446,7 +24452,7 @@
         <v>229</v>
       </c>
       <c r="P121" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24637,7 +24643,7 @@
         <v>145</v>
       </c>
       <c r="P122" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -25019,7 +25025,7 @@
         <v>231</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25679,7 +25685,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT127">
         <v>0.83</v>
@@ -25974,7 +25980,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26825,7 +26831,7 @@
         <v>2</v>
       </c>
       <c r="AS133">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT133">
         <v>1.86</v>
@@ -27311,7 +27317,7 @@
         <v>239</v>
       </c>
       <c r="P136" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27401,7 +27407,7 @@
         <v>0.83</v>
       </c>
       <c r="AT136">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU136">
         <v>0.84</v>
@@ -27502,7 +27508,7 @@
         <v>240</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27780,7 +27786,7 @@
         <v>3</v>
       </c>
       <c r="AS138">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT138">
         <v>2</v>
@@ -28266,7 +28272,7 @@
         <v>242</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28457,7 +28463,7 @@
         <v>145</v>
       </c>
       <c r="P142" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28547,7 +28553,7 @@
         <v>1.86</v>
       </c>
       <c r="AT142">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU142">
         <v>2.12</v>
@@ -28648,7 +28654,7 @@
         <v>243</v>
       </c>
       <c r="P143" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28839,7 +28845,7 @@
         <v>145</v>
       </c>
       <c r="P144" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29030,7 +29036,7 @@
         <v>244</v>
       </c>
       <c r="P145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29117,7 +29123,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT145">
         <v>0.83</v>
@@ -29221,7 +29227,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29311,7 +29317,7 @@
         <v>2</v>
       </c>
       <c r="AT146">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU146">
         <v>1.85</v>
@@ -29412,7 +29418,7 @@
         <v>245</v>
       </c>
       <c r="P147" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29693,7 +29699,7 @@
         <v>0.83</v>
       </c>
       <c r="AT148">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU148">
         <v>1.32</v>
@@ -29794,7 +29800,7 @@
         <v>145</v>
       </c>
       <c r="P149" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29985,7 +29991,7 @@
         <v>246</v>
       </c>
       <c r="P150" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30176,7 +30182,7 @@
         <v>247</v>
       </c>
       <c r="P151" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30367,7 +30373,7 @@
         <v>248</v>
       </c>
       <c r="P152" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30558,7 +30564,7 @@
         <v>145</v>
       </c>
       <c r="P153" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30749,7 +30755,7 @@
         <v>249</v>
       </c>
       <c r="P154" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30940,7 +30946,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -31030,7 +31036,7 @@
         <v>1</v>
       </c>
       <c r="AT155">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU155">
         <v>1.83</v>
@@ -31322,7 +31328,7 @@
         <v>145</v>
       </c>
       <c r="P157" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31513,7 +31519,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31704,7 +31710,7 @@
         <v>251</v>
       </c>
       <c r="P159" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31982,7 +31988,7 @@
         <v>2.5</v>
       </c>
       <c r="AS160">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
         <v>2.14</v>
@@ -32086,7 +32092,7 @@
         <v>252</v>
       </c>
       <c r="P161" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32277,7 +32283,7 @@
         <v>253</v>
       </c>
       <c r="P162" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32364,7 +32370,7 @@
         <v>0.75</v>
       </c>
       <c r="AS162">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT162">
         <v>0.5</v>
@@ -32659,7 +32665,7 @@
         <v>145</v>
       </c>
       <c r="P164" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32746,7 +32752,7 @@
         <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT164">
         <v>1.71</v>
@@ -33041,7 +33047,7 @@
         <v>145</v>
       </c>
       <c r="P166" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33232,7 +33238,7 @@
         <v>256</v>
       </c>
       <c r="P167" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -33423,7 +33429,7 @@
         <v>145</v>
       </c>
       <c r="P168" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33996,7 +34002,7 @@
         <v>258</v>
       </c>
       <c r="P171" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34277,7 +34283,7 @@
         <v>0.83</v>
       </c>
       <c r="AT172">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU172">
         <v>2.01</v>
@@ -34378,7 +34384,7 @@
         <v>143</v>
       </c>
       <c r="P173" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34569,7 +34575,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -34760,7 +34766,7 @@
         <v>259</v>
       </c>
       <c r="P175" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -35142,7 +35148,7 @@
         <v>261</v>
       </c>
       <c r="P177" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35715,7 +35721,7 @@
         <v>145</v>
       </c>
       <c r="P180" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q180">
         <v>2</v>
@@ -35993,7 +35999,7 @@
         <v>1.55</v>
       </c>
       <c r="AS181">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT181">
         <v>1.42</v>
@@ -36288,7 +36294,7 @@
         <v>266</v>
       </c>
       <c r="P183" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36479,7 +36485,7 @@
         <v>150</v>
       </c>
       <c r="P184" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36569,7 +36575,7 @@
         <v>0.88</v>
       </c>
       <c r="AT184">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU184">
         <v>1.04</v>
@@ -36670,7 +36676,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36861,7 +36867,7 @@
         <v>267</v>
       </c>
       <c r="P186" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -36951,7 +36957,7 @@
         <v>1.17</v>
       </c>
       <c r="AT186">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU186">
         <v>2.03</v>
@@ -37052,7 +37058,7 @@
         <v>145</v>
       </c>
       <c r="P187" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37434,7 +37440,7 @@
         <v>145</v>
       </c>
       <c r="P189" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37521,10 +37527,10 @@
         <v>2.6</v>
       </c>
       <c r="AS189">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT189">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU189">
         <v>1.24</v>
@@ -37712,10 +37718,10 @@
         <v>2.17</v>
       </c>
       <c r="AS190">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT190">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU190">
         <v>1.47</v>
@@ -37816,7 +37822,7 @@
         <v>269</v>
       </c>
       <c r="P191" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38007,7 +38013,7 @@
         <v>145</v>
       </c>
       <c r="P192" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38531,6 +38537,388 @@
       </c>
       <c r="BK194">
         <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>4576425</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44992.70833333334</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>109</v>
+      </c>
+      <c r="H195" t="s">
+        <v>129</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>5</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>6</v>
+      </c>
+      <c r="O195" t="s">
+        <v>270</v>
+      </c>
+      <c r="P195" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q195">
+        <v>2</v>
+      </c>
+      <c r="R195">
+        <v>5</v>
+      </c>
+      <c r="S195">
+        <v>7</v>
+      </c>
+      <c r="T195">
+        <v>1.95</v>
+      </c>
+      <c r="U195">
+        <v>2.4</v>
+      </c>
+      <c r="V195">
+        <v>6.5</v>
+      </c>
+      <c r="W195">
+        <v>1.33</v>
+      </c>
+      <c r="X195">
+        <v>3.25</v>
+      </c>
+      <c r="Y195">
+        <v>2.5</v>
+      </c>
+      <c r="Z195">
+        <v>1.5</v>
+      </c>
+      <c r="AA195">
+        <v>6.5</v>
+      </c>
+      <c r="AB195">
+        <v>1.11</v>
+      </c>
+      <c r="AC195">
+        <v>1.54</v>
+      </c>
+      <c r="AD195">
+        <v>4.25</v>
+      </c>
+      <c r="AE195">
+        <v>6</v>
+      </c>
+      <c r="AF195">
+        <v>1.04</v>
+      </c>
+      <c r="AG195">
+        <v>12</v>
+      </c>
+      <c r="AH195">
+        <v>1.23</v>
+      </c>
+      <c r="AI195">
+        <v>3.8</v>
+      </c>
+      <c r="AJ195">
+        <v>1.77</v>
+      </c>
+      <c r="AK195">
+        <v>1.94</v>
+      </c>
+      <c r="AL195">
+        <v>1.95</v>
+      </c>
+      <c r="AM195">
+        <v>1.8</v>
+      </c>
+      <c r="AN195">
+        <v>1.1</v>
+      </c>
+      <c r="AO195">
+        <v>1.2</v>
+      </c>
+      <c r="AP195">
+        <v>2.75</v>
+      </c>
+      <c r="AQ195">
+        <v>2.64</v>
+      </c>
+      <c r="AR195">
+        <v>1.57</v>
+      </c>
+      <c r="AS195">
+        <v>2.67</v>
+      </c>
+      <c r="AT195">
+        <v>1.38</v>
+      </c>
+      <c r="AU195">
+        <v>2.14</v>
+      </c>
+      <c r="AV195">
+        <v>1.14</v>
+      </c>
+      <c r="AW195">
+        <v>3.28</v>
+      </c>
+      <c r="AX195">
+        <v>1.34</v>
+      </c>
+      <c r="AY195">
+        <v>10</v>
+      </c>
+      <c r="AZ195">
+        <v>4.15</v>
+      </c>
+      <c r="BA195">
+        <v>1.14</v>
+      </c>
+      <c r="BB195">
+        <v>1.29</v>
+      </c>
+      <c r="BC195">
+        <v>1.53</v>
+      </c>
+      <c r="BD195">
+        <v>1.9</v>
+      </c>
+      <c r="BE195">
+        <v>2.42</v>
+      </c>
+      <c r="BF195">
+        <v>9</v>
+      </c>
+      <c r="BG195">
+        <v>3</v>
+      </c>
+      <c r="BH195">
+        <v>12</v>
+      </c>
+      <c r="BI195">
+        <v>11</v>
+      </c>
+      <c r="BJ195">
+        <v>21</v>
+      </c>
+      <c r="BK195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>4576426</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44992.71527777778</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>139</v>
+      </c>
+      <c r="H196" t="s">
+        <v>117</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>2</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196" t="s">
+        <v>271</v>
+      </c>
+      <c r="P196" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q196">
+        <v>5</v>
+      </c>
+      <c r="R196">
+        <v>3</v>
+      </c>
+      <c r="S196">
+        <v>8</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>2.2</v>
+      </c>
+      <c r="V196">
+        <v>4.33</v>
+      </c>
+      <c r="W196">
+        <v>1.36</v>
+      </c>
+      <c r="X196">
+        <v>3</v>
+      </c>
+      <c r="Y196">
+        <v>2.75</v>
+      </c>
+      <c r="Z196">
+        <v>1.4</v>
+      </c>
+      <c r="AA196">
+        <v>8</v>
+      </c>
+      <c r="AB196">
+        <v>1.08</v>
+      </c>
+      <c r="AC196">
+        <v>1.91</v>
+      </c>
+      <c r="AD196">
+        <v>3.6</v>
+      </c>
+      <c r="AE196">
+        <v>4.03</v>
+      </c>
+      <c r="AF196">
+        <v>1.05</v>
+      </c>
+      <c r="AG196">
+        <v>12</v>
+      </c>
+      <c r="AH196">
+        <v>1.3</v>
+      </c>
+      <c r="AI196">
+        <v>3.7</v>
+      </c>
+      <c r="AJ196">
+        <v>1.78</v>
+      </c>
+      <c r="AK196">
+        <v>1.93</v>
+      </c>
+      <c r="AL196">
+        <v>1.75</v>
+      </c>
+      <c r="AM196">
+        <v>2</v>
+      </c>
+      <c r="AN196">
+        <v>1.22</v>
+      </c>
+      <c r="AO196">
+        <v>1.24</v>
+      </c>
+      <c r="AP196">
+        <v>2.05</v>
+      </c>
+      <c r="AQ196">
+        <v>1.86</v>
+      </c>
+      <c r="AR196">
+        <v>1.71</v>
+      </c>
+      <c r="AS196">
+        <v>2</v>
+      </c>
+      <c r="AT196">
+        <v>1.5</v>
+      </c>
+      <c r="AU196">
+        <v>1.93</v>
+      </c>
+      <c r="AV196">
+        <v>1.31</v>
+      </c>
+      <c r="AW196">
+        <v>3.24</v>
+      </c>
+      <c r="AX196">
+        <v>1.48</v>
+      </c>
+      <c r="AY196">
+        <v>8.5</v>
+      </c>
+      <c r="AZ196">
+        <v>3.4</v>
+      </c>
+      <c r="BA196">
+        <v>1.28</v>
+      </c>
+      <c r="BB196">
+        <v>1.53</v>
+      </c>
+      <c r="BC196">
+        <v>1.92</v>
+      </c>
+      <c r="BD196">
+        <v>2.47</v>
+      </c>
+      <c r="BE196">
+        <v>3.28</v>
+      </c>
+      <c r="BF196">
+        <v>5</v>
+      </c>
+      <c r="BG196">
+        <v>5</v>
+      </c>
+      <c r="BH196">
+        <v>7</v>
+      </c>
+      <c r="BI196">
+        <v>5</v>
+      </c>
+      <c r="BJ196">
+        <v>12</v>
+      </c>
+      <c r="BK196">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="369">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -832,6 +832,9 @@
     <t>['43', '53']</t>
   </si>
   <si>
+    <t>['61', '89']</t>
+  </si>
+  <si>
     <t>['55', '66']</t>
   </si>
   <si>
@@ -1479,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK196"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1726,7 @@
         <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1914,7 +1917,7 @@
         <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2105,7 +2108,7 @@
         <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2487,7 +2490,7 @@
         <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -2869,7 +2872,7 @@
         <v>148</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -5161,7 +5164,7 @@
         <v>156</v>
       </c>
       <c r="P20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5543,7 +5546,7 @@
         <v>158</v>
       </c>
       <c r="P22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -6116,7 +6119,7 @@
         <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -6498,7 +6501,7 @@
         <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6689,7 +6692,7 @@
         <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6880,7 +6883,7 @@
         <v>163</v>
       </c>
       <c r="P29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7071,7 +7074,7 @@
         <v>164</v>
       </c>
       <c r="P30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7262,7 +7265,7 @@
         <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7453,7 +7456,7 @@
         <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7644,7 +7647,7 @@
         <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8026,7 +8029,7 @@
         <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8217,7 +8220,7 @@
         <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q36">
         <v>10</v>
@@ -8599,7 +8602,7 @@
         <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -9172,7 +9175,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9363,7 +9366,7 @@
         <v>174</v>
       </c>
       <c r="P42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9745,7 +9748,7 @@
         <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10318,7 +10321,7 @@
         <v>177</v>
       </c>
       <c r="P47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10891,7 +10894,7 @@
         <v>180</v>
       </c>
       <c r="P50" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11082,7 +11085,7 @@
         <v>145</v>
       </c>
       <c r="P51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11273,7 +11276,7 @@
         <v>181</v>
       </c>
       <c r="P52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11655,7 +11658,7 @@
         <v>145</v>
       </c>
       <c r="P54" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11846,7 +11849,7 @@
         <v>183</v>
       </c>
       <c r="P55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12037,7 +12040,7 @@
         <v>178</v>
       </c>
       <c r="P56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12228,7 +12231,7 @@
         <v>176</v>
       </c>
       <c r="P57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12419,7 +12422,7 @@
         <v>145</v>
       </c>
       <c r="P58" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12610,7 +12613,7 @@
         <v>184</v>
       </c>
       <c r="P59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12801,7 +12804,7 @@
         <v>160</v>
       </c>
       <c r="P60" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13374,7 +13377,7 @@
         <v>187</v>
       </c>
       <c r="P63" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -14902,7 +14905,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15093,7 +15096,7 @@
         <v>195</v>
       </c>
       <c r="P72" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15284,7 +15287,7 @@
         <v>196</v>
       </c>
       <c r="P73" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q73">
         <v>12</v>
@@ -15475,7 +15478,7 @@
         <v>197</v>
       </c>
       <c r="P74" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15666,7 +15669,7 @@
         <v>198</v>
       </c>
       <c r="P75" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15857,7 +15860,7 @@
         <v>199</v>
       </c>
       <c r="P76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16048,7 +16051,7 @@
         <v>200</v>
       </c>
       <c r="P77" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16430,7 +16433,7 @@
         <v>202</v>
       </c>
       <c r="P79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16812,7 +16815,7 @@
         <v>203</v>
       </c>
       <c r="P81" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17194,7 +17197,7 @@
         <v>204</v>
       </c>
       <c r="P83" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17385,7 +17388,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17576,7 +17579,7 @@
         <v>205</v>
       </c>
       <c r="P85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17958,7 +17961,7 @@
         <v>207</v>
       </c>
       <c r="P87" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18340,7 +18343,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -19194,7 +19197,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -19295,7 +19298,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19486,7 +19489,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19677,7 +19680,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19868,7 +19871,7 @@
         <v>211</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19955,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT97">
         <v>0.5</v>
@@ -20441,7 +20444,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20632,7 +20635,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20910,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -21014,7 +21017,7 @@
         <v>215</v>
       </c>
       <c r="P103" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -21205,7 +21208,7 @@
         <v>216</v>
       </c>
       <c r="P104" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21778,7 +21781,7 @@
         <v>145</v>
       </c>
       <c r="P107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -22059,7 +22062,7 @@
         <v>1.17</v>
       </c>
       <c r="AT108">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -22351,7 +22354,7 @@
         <v>145</v>
       </c>
       <c r="P110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22924,7 +22927,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23115,7 +23118,7 @@
         <v>223</v>
       </c>
       <c r="P114" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23202,7 +23205,7 @@
         <v>2.29</v>
       </c>
       <c r="AS114">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
         <v>1.42</v>
@@ -23306,7 +23309,7 @@
         <v>224</v>
       </c>
       <c r="P115" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23497,7 +23500,7 @@
         <v>225</v>
       </c>
       <c r="P116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23879,7 +23882,7 @@
         <v>227</v>
       </c>
       <c r="P118" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -24261,7 +24264,7 @@
         <v>228</v>
       </c>
       <c r="P120" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24452,7 +24455,7 @@
         <v>229</v>
       </c>
       <c r="P121" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24542,7 +24545,7 @@
         <v>1.17</v>
       </c>
       <c r="AT121">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU121">
         <v>2.24</v>
@@ -24643,7 +24646,7 @@
         <v>145</v>
       </c>
       <c r="P122" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -25025,7 +25028,7 @@
         <v>231</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25497,7 +25500,7 @@
         <v>1.43</v>
       </c>
       <c r="AT126">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU126">
         <v>1.26</v>
@@ -25980,7 +25983,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26834,7 +26837,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU133">
         <v>1.94</v>
@@ -27317,7 +27320,7 @@
         <v>239</v>
       </c>
       <c r="P136" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27508,7 +27511,7 @@
         <v>240</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27789,7 +27792,7 @@
         <v>2.67</v>
       </c>
       <c r="AT138">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU138">
         <v>2.41</v>
@@ -28272,7 +28275,7 @@
         <v>242</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28463,7 +28466,7 @@
         <v>145</v>
       </c>
       <c r="P142" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28550,7 +28553,7 @@
         <v>1.33</v>
       </c>
       <c r="AS142">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT142">
         <v>2</v>
@@ -28654,7 +28657,7 @@
         <v>243</v>
       </c>
       <c r="P143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28845,7 +28848,7 @@
         <v>145</v>
       </c>
       <c r="P144" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29036,7 +29039,7 @@
         <v>244</v>
       </c>
       <c r="P145" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29227,7 +29230,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29314,7 +29317,7 @@
         <v>2.71</v>
       </c>
       <c r="AS146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT146">
         <v>2.67</v>
@@ -29418,7 +29421,7 @@
         <v>245</v>
       </c>
       <c r="P147" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29800,7 +29803,7 @@
         <v>145</v>
       </c>
       <c r="P149" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29991,7 +29994,7 @@
         <v>246</v>
       </c>
       <c r="P150" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30078,7 +30081,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT150">
         <v>1.43</v>
@@ -30182,7 +30185,7 @@
         <v>247</v>
       </c>
       <c r="P151" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30373,7 +30376,7 @@
         <v>248</v>
       </c>
       <c r="P152" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30564,7 +30567,7 @@
         <v>145</v>
       </c>
       <c r="P153" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30755,7 +30758,7 @@
         <v>249</v>
       </c>
       <c r="P154" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30946,7 +30949,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -31328,7 +31331,7 @@
         <v>145</v>
       </c>
       <c r="P157" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31418,7 +31421,7 @@
         <v>1.42</v>
       </c>
       <c r="AT157">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU157">
         <v>1.72</v>
@@ -31519,7 +31522,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31710,7 +31713,7 @@
         <v>251</v>
       </c>
       <c r="P159" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -32092,7 +32095,7 @@
         <v>252</v>
       </c>
       <c r="P161" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32179,7 +32182,7 @@
         <v>1.4</v>
       </c>
       <c r="AS161">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT161">
         <v>1.17</v>
@@ -32283,7 +32286,7 @@
         <v>253</v>
       </c>
       <c r="P162" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32665,7 +32668,7 @@
         <v>145</v>
       </c>
       <c r="P164" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -33047,7 +33050,7 @@
         <v>145</v>
       </c>
       <c r="P166" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33238,7 +33241,7 @@
         <v>256</v>
       </c>
       <c r="P167" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -33429,7 +33432,7 @@
         <v>145</v>
       </c>
       <c r="P168" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -33707,7 +33710,7 @@
         <v>1.5</v>
       </c>
       <c r="AS169">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT169">
         <v>1.17</v>
@@ -34002,7 +34005,7 @@
         <v>258</v>
       </c>
       <c r="P171" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34384,7 +34387,7 @@
         <v>143</v>
       </c>
       <c r="P173" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34474,7 +34477,7 @@
         <v>1</v>
       </c>
       <c r="AT173">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU173">
         <v>2.08</v>
@@ -34575,7 +34578,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -34766,7 +34769,7 @@
         <v>259</v>
       </c>
       <c r="P175" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -35148,7 +35151,7 @@
         <v>261</v>
       </c>
       <c r="P177" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35721,7 +35724,7 @@
         <v>145</v>
       </c>
       <c r="P180" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q180">
         <v>2</v>
@@ -36190,7 +36193,7 @@
         <v>1.2</v>
       </c>
       <c r="AS182">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT182">
         <v>1</v>
@@ -36294,7 +36297,7 @@
         <v>266</v>
       </c>
       <c r="P183" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36485,7 +36488,7 @@
         <v>150</v>
       </c>
       <c r="P184" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36676,7 +36679,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36766,7 +36769,7 @@
         <v>0.5</v>
       </c>
       <c r="AT185">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU185">
         <v>1.83</v>
@@ -36867,7 +36870,7 @@
         <v>267</v>
       </c>
       <c r="P186" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37058,7 +37061,7 @@
         <v>145</v>
       </c>
       <c r="P187" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37145,7 +37148,7 @@
         <v>3</v>
       </c>
       <c r="AS187">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT187">
         <v>3</v>
@@ -37336,10 +37339,10 @@
         <v>1.83</v>
       </c>
       <c r="AS188">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT188">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU188">
         <v>1.61</v>
@@ -37440,7 +37443,7 @@
         <v>145</v>
       </c>
       <c r="P189" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37822,7 +37825,7 @@
         <v>269</v>
       </c>
       <c r="P191" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38013,7 +38016,7 @@
         <v>145</v>
       </c>
       <c r="P192" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38919,6 +38922,388 @@
       </c>
       <c r="BK196">
         <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>4576428</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44993.70833333334</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>135</v>
+      </c>
+      <c r="H197" t="s">
+        <v>122</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>272</v>
+      </c>
+      <c r="P197" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q197">
+        <v>4</v>
+      </c>
+      <c r="R197">
+        <v>6</v>
+      </c>
+      <c r="S197">
+        <v>10</v>
+      </c>
+      <c r="T197">
+        <v>2.3</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>4</v>
+      </c>
+      <c r="W197">
+        <v>1.25</v>
+      </c>
+      <c r="X197">
+        <v>3.75</v>
+      </c>
+      <c r="Y197">
+        <v>2.2</v>
+      </c>
+      <c r="Z197">
+        <v>1.62</v>
+      </c>
+      <c r="AA197">
+        <v>5</v>
+      </c>
+      <c r="AB197">
+        <v>1.17</v>
+      </c>
+      <c r="AC197">
+        <v>1.8</v>
+      </c>
+      <c r="AD197">
+        <v>4.11</v>
+      </c>
+      <c r="AE197">
+        <v>3.7</v>
+      </c>
+      <c r="AF197">
+        <v>1.02</v>
+      </c>
+      <c r="AG197">
+        <v>20</v>
+      </c>
+      <c r="AH197">
+        <v>1.16</v>
+      </c>
+      <c r="AI197">
+        <v>5.6</v>
+      </c>
+      <c r="AJ197">
+        <v>1.58</v>
+      </c>
+      <c r="AK197">
+        <v>2.39</v>
+      </c>
+      <c r="AL197">
+        <v>1.5</v>
+      </c>
+      <c r="AM197">
+        <v>2.5</v>
+      </c>
+      <c r="AN197">
+        <v>1.29</v>
+      </c>
+      <c r="AO197">
+        <v>1.22</v>
+      </c>
+      <c r="AP197">
+        <v>1.9</v>
+      </c>
+      <c r="AQ197">
+        <v>3</v>
+      </c>
+      <c r="AR197">
+        <v>2</v>
+      </c>
+      <c r="AS197">
+        <v>3</v>
+      </c>
+      <c r="AT197">
+        <v>1.75</v>
+      </c>
+      <c r="AU197">
+        <v>2.4</v>
+      </c>
+      <c r="AV197">
+        <v>1.78</v>
+      </c>
+      <c r="AW197">
+        <v>4.18</v>
+      </c>
+      <c r="AX197">
+        <v>1.69</v>
+      </c>
+      <c r="AY197">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ197">
+        <v>2.67</v>
+      </c>
+      <c r="BA197">
+        <v>1.28</v>
+      </c>
+      <c r="BB197">
+        <v>1.55</v>
+      </c>
+      <c r="BC197">
+        <v>1.94</v>
+      </c>
+      <c r="BD197">
+        <v>2.53</v>
+      </c>
+      <c r="BE197">
+        <v>3.42</v>
+      </c>
+      <c r="BF197">
+        <v>6</v>
+      </c>
+      <c r="BG197">
+        <v>5</v>
+      </c>
+      <c r="BH197">
+        <v>3</v>
+      </c>
+      <c r="BI197">
+        <v>2</v>
+      </c>
+      <c r="BJ197">
+        <v>9</v>
+      </c>
+      <c r="BK197">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>4576427</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44993.71527777778</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>126</v>
+      </c>
+      <c r="H198" t="s">
+        <v>137</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198" t="s">
+        <v>145</v>
+      </c>
+      <c r="P198" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q198">
+        <v>6</v>
+      </c>
+      <c r="R198">
+        <v>0</v>
+      </c>
+      <c r="S198">
+        <v>6</v>
+      </c>
+      <c r="T198">
+        <v>2.63</v>
+      </c>
+      <c r="U198">
+        <v>2.2</v>
+      </c>
+      <c r="V198">
+        <v>4</v>
+      </c>
+      <c r="W198">
+        <v>1.4</v>
+      </c>
+      <c r="X198">
+        <v>2.75</v>
+      </c>
+      <c r="Y198">
+        <v>2.75</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>8</v>
+      </c>
+      <c r="AB198">
+        <v>1.08</v>
+      </c>
+      <c r="AC198">
+        <v>1.94</v>
+      </c>
+      <c r="AD198">
+        <v>3.5</v>
+      </c>
+      <c r="AE198">
+        <v>4</v>
+      </c>
+      <c r="AF198">
+        <v>1.06</v>
+      </c>
+      <c r="AG198">
+        <v>10</v>
+      </c>
+      <c r="AH198">
+        <v>1.33</v>
+      </c>
+      <c r="AI198">
+        <v>3.5</v>
+      </c>
+      <c r="AJ198">
+        <v>1.97</v>
+      </c>
+      <c r="AK198">
+        <v>1.84</v>
+      </c>
+      <c r="AL198">
+        <v>1.8</v>
+      </c>
+      <c r="AM198">
+        <v>1.95</v>
+      </c>
+      <c r="AN198">
+        <v>1.26</v>
+      </c>
+      <c r="AO198">
+        <v>1.26</v>
+      </c>
+      <c r="AP198">
+        <v>1.87</v>
+      </c>
+      <c r="AQ198">
+        <v>1.57</v>
+      </c>
+      <c r="AR198">
+        <v>1.86</v>
+      </c>
+      <c r="AS198">
+        <v>1.5</v>
+      </c>
+      <c r="AT198">
+        <v>1.75</v>
+      </c>
+      <c r="AU198">
+        <v>1.87</v>
+      </c>
+      <c r="AV198">
+        <v>1.81</v>
+      </c>
+      <c r="AW198">
+        <v>3.68</v>
+      </c>
+      <c r="AX198">
+        <v>1.48</v>
+      </c>
+      <c r="AY198">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ198">
+        <v>3.35</v>
+      </c>
+      <c r="BA198">
+        <v>1.28</v>
+      </c>
+      <c r="BB198">
+        <v>1.54</v>
+      </c>
+      <c r="BC198">
+        <v>1.93</v>
+      </c>
+      <c r="BD198">
+        <v>2.5</v>
+      </c>
+      <c r="BE198">
+        <v>3.34</v>
+      </c>
+      <c r="BF198">
+        <v>3</v>
+      </c>
+      <c r="BG198">
+        <v>4</v>
+      </c>
+      <c r="BH198">
+        <v>3</v>
+      </c>
+      <c r="BI198">
+        <v>5</v>
+      </c>
+      <c r="BJ198">
+        <v>6</v>
+      </c>
+      <c r="BK198">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -835,6 +835,9 @@
     <t>['61', '89']</t>
   </si>
   <si>
+    <t>['22', '24', '45+2', '49', '53', '57', '90+2']</t>
+  </si>
+  <si>
     <t>['55', '66']</t>
   </si>
   <si>
@@ -1482,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,7 +1729,7 @@
         <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1917,7 +1920,7 @@
         <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2108,7 +2111,7 @@
         <v>145</v>
       </c>
       <c r="P4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2490,7 +2493,7 @@
         <v>146</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -2872,7 +2875,7 @@
         <v>148</v>
       </c>
       <c r="P8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -5164,7 +5167,7 @@
         <v>156</v>
       </c>
       <c r="P20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5546,7 +5549,7 @@
         <v>158</v>
       </c>
       <c r="P22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -6119,7 +6122,7 @@
         <v>161</v>
       </c>
       <c r="P25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -6501,7 +6504,7 @@
         <v>145</v>
       </c>
       <c r="P27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -6692,7 +6695,7 @@
         <v>162</v>
       </c>
       <c r="P28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6883,7 +6886,7 @@
         <v>163</v>
       </c>
       <c r="P29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7074,7 +7077,7 @@
         <v>164</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7265,7 +7268,7 @@
         <v>145</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7456,7 +7459,7 @@
         <v>165</v>
       </c>
       <c r="P32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7647,7 +7650,7 @@
         <v>166</v>
       </c>
       <c r="P33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -8029,7 +8032,7 @@
         <v>145</v>
       </c>
       <c r="P35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8220,7 +8223,7 @@
         <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q36">
         <v>10</v>
@@ -8602,7 +8605,7 @@
         <v>170</v>
       </c>
       <c r="P38" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -9175,7 +9178,7 @@
         <v>173</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9366,7 +9369,7 @@
         <v>174</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9748,7 +9751,7 @@
         <v>176</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -10321,7 +10324,7 @@
         <v>177</v>
       </c>
       <c r="P47" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q47">
         <v>8</v>
@@ -10894,7 +10897,7 @@
         <v>180</v>
       </c>
       <c r="P50" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11085,7 +11088,7 @@
         <v>145</v>
       </c>
       <c r="P51" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11276,7 +11279,7 @@
         <v>181</v>
       </c>
       <c r="P52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11658,7 +11661,7 @@
         <v>145</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11849,7 +11852,7 @@
         <v>183</v>
       </c>
       <c r="P55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -12040,7 +12043,7 @@
         <v>178</v>
       </c>
       <c r="P56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -12231,7 +12234,7 @@
         <v>176</v>
       </c>
       <c r="P57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12422,7 +12425,7 @@
         <v>145</v>
       </c>
       <c r="P58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12613,7 +12616,7 @@
         <v>184</v>
       </c>
       <c r="P59" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12804,7 +12807,7 @@
         <v>160</v>
       </c>
       <c r="P60" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13377,7 +13380,7 @@
         <v>187</v>
       </c>
       <c r="P63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -14905,7 +14908,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -15096,7 +15099,7 @@
         <v>195</v>
       </c>
       <c r="P72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -15287,7 +15290,7 @@
         <v>196</v>
       </c>
       <c r="P73" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q73">
         <v>12</v>
@@ -15478,7 +15481,7 @@
         <v>197</v>
       </c>
       <c r="P74" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15669,7 +15672,7 @@
         <v>198</v>
       </c>
       <c r="P75" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15860,7 +15863,7 @@
         <v>199</v>
       </c>
       <c r="P76" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16051,7 +16054,7 @@
         <v>200</v>
       </c>
       <c r="P77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16433,7 +16436,7 @@
         <v>202</v>
       </c>
       <c r="P79" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16815,7 +16818,7 @@
         <v>203</v>
       </c>
       <c r="P81" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -17197,7 +17200,7 @@
         <v>204</v>
       </c>
       <c r="P83" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17388,7 +17391,7 @@
         <v>145</v>
       </c>
       <c r="P84" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17579,7 +17582,7 @@
         <v>205</v>
       </c>
       <c r="P85" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17961,7 +17964,7 @@
         <v>207</v>
       </c>
       <c r="P87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18343,7 +18346,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -19298,7 +19301,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19489,7 +19492,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19576,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="AS95">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT95">
         <v>1</v>
@@ -19680,7 +19683,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -19770,7 +19773,7 @@
         <v>0.83</v>
       </c>
       <c r="AT96">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19871,7 +19874,7 @@
         <v>211</v>
       </c>
       <c r="P97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20444,7 +20447,7 @@
         <v>145</v>
       </c>
       <c r="P100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20635,7 +20638,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20722,7 +20725,7 @@
         <v>0</v>
       </c>
       <c r="AS101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT101">
         <v>3</v>
@@ -21017,7 +21020,7 @@
         <v>215</v>
       </c>
       <c r="P103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q103">
         <v>10</v>
@@ -21208,7 +21211,7 @@
         <v>216</v>
       </c>
       <c r="P104" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21298,7 +21301,7 @@
         <v>0.83</v>
       </c>
       <c r="AT104">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21781,7 +21784,7 @@
         <v>145</v>
       </c>
       <c r="P107" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21871,7 +21874,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU107">
         <v>1.53</v>
@@ -22354,7 +22357,7 @@
         <v>145</v>
       </c>
       <c r="P110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22441,7 +22444,7 @@
         <v>3</v>
       </c>
       <c r="AS110">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT110">
         <v>1.38</v>
@@ -22927,7 +22930,7 @@
         <v>145</v>
       </c>
       <c r="P113" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -23118,7 +23121,7 @@
         <v>223</v>
       </c>
       <c r="P114" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23309,7 +23312,7 @@
         <v>224</v>
       </c>
       <c r="P115" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23500,7 +23503,7 @@
         <v>225</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23781,7 +23784,7 @@
         <v>2.29</v>
       </c>
       <c r="AT117">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU117">
         <v>0</v>
@@ -23882,7 +23885,7 @@
         <v>227</v>
       </c>
       <c r="P118" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23969,7 +23972,7 @@
         <v>3</v>
       </c>
       <c r="AS118">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT118">
         <v>1.5</v>
@@ -24264,7 +24267,7 @@
         <v>228</v>
       </c>
       <c r="P120" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24455,7 +24458,7 @@
         <v>229</v>
       </c>
       <c r="P121" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24646,7 +24649,7 @@
         <v>145</v>
       </c>
       <c r="P122" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -25028,7 +25031,7 @@
         <v>231</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25306,7 +25309,7 @@
         <v>1.5</v>
       </c>
       <c r="AS125">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT125">
         <v>1.17</v>
@@ -25879,7 +25882,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT128">
         <v>0.83</v>
@@ -25983,7 +25986,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26643,7 +26646,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT132">
         <v>0.33</v>
@@ -27216,7 +27219,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT135">
         <v>0.88</v>
@@ -27320,7 +27323,7 @@
         <v>239</v>
       </c>
       <c r="P136" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27511,7 +27514,7 @@
         <v>240</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -28174,7 +28177,7 @@
         <v>0.88</v>
       </c>
       <c r="AT140">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU140">
         <v>1.14</v>
@@ -28275,7 +28278,7 @@
         <v>242</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28466,7 +28469,7 @@
         <v>145</v>
       </c>
       <c r="P142" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28657,7 +28660,7 @@
         <v>243</v>
       </c>
       <c r="P143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28848,7 +28851,7 @@
         <v>145</v>
       </c>
       <c r="P144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28938,7 +28941,7 @@
         <v>0.33</v>
       </c>
       <c r="AT144">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU144">
         <v>1.5</v>
@@ -29039,7 +29042,7 @@
         <v>244</v>
       </c>
       <c r="P145" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -29230,7 +29233,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q146">
         <v>6</v>
@@ -29421,7 +29424,7 @@
         <v>245</v>
       </c>
       <c r="P147" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29803,7 +29806,7 @@
         <v>145</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29994,7 +29997,7 @@
         <v>246</v>
       </c>
       <c r="P150" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30185,7 +30188,7 @@
         <v>247</v>
       </c>
       <c r="P151" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30376,7 +30379,7 @@
         <v>248</v>
       </c>
       <c r="P152" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q152">
         <v>10</v>
@@ -30466,7 +30469,7 @@
         <v>1.17</v>
       </c>
       <c r="AT152">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU152">
         <v>2.62</v>
@@ -30567,7 +30570,7 @@
         <v>145</v>
       </c>
       <c r="P153" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30657,7 +30660,7 @@
         <v>0.83</v>
       </c>
       <c r="AT153">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU153">
         <v>1.9</v>
@@ -30758,7 +30761,7 @@
         <v>249</v>
       </c>
       <c r="P154" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30949,7 +30952,7 @@
         <v>169</v>
       </c>
       <c r="P155" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q155">
         <v>9</v>
@@ -31331,7 +31334,7 @@
         <v>145</v>
       </c>
       <c r="P157" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q157">
         <v>0</v>
@@ -31522,7 +31525,7 @@
         <v>188</v>
       </c>
       <c r="P158" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31713,7 +31716,7 @@
         <v>251</v>
       </c>
       <c r="P159" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31800,7 +31803,7 @@
         <v>2.5</v>
       </c>
       <c r="AS159">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT159">
         <v>2.29</v>
@@ -31994,7 +31997,7 @@
         <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU160">
         <v>1.63</v>
@@ -32095,7 +32098,7 @@
         <v>252</v>
       </c>
       <c r="P161" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32286,7 +32289,7 @@
         <v>253</v>
       </c>
       <c r="P162" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32564,7 +32567,7 @@
         <v>1.6</v>
       </c>
       <c r="AS163">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT163">
         <v>1.33</v>
@@ -32668,7 +32671,7 @@
         <v>145</v>
       </c>
       <c r="P164" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32758,7 +32761,7 @@
         <v>1.38</v>
       </c>
       <c r="AT164">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU164">
         <v>1.14</v>
@@ -33050,7 +33053,7 @@
         <v>145</v>
       </c>
       <c r="P166" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33241,7 +33244,7 @@
         <v>256</v>
       </c>
       <c r="P167" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -33432,7 +33435,7 @@
         <v>145</v>
       </c>
       <c r="P168" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q168">
         <v>2</v>
@@ -34005,7 +34008,7 @@
         <v>258</v>
       </c>
       <c r="P171" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -34092,7 +34095,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT171">
         <v>0.83</v>
@@ -34387,7 +34390,7 @@
         <v>143</v>
       </c>
       <c r="P173" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q173">
         <v>9</v>
@@ -34578,7 +34581,7 @@
         <v>193</v>
       </c>
       <c r="P174" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q174">
         <v>3</v>
@@ -34769,7 +34772,7 @@
         <v>259</v>
       </c>
       <c r="P175" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -35050,7 +35053,7 @@
         <v>3</v>
       </c>
       <c r="AT176">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU176">
         <v>2.32</v>
@@ -35151,7 +35154,7 @@
         <v>261</v>
       </c>
       <c r="P177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35724,7 +35727,7 @@
         <v>145</v>
       </c>
       <c r="P180" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q180">
         <v>2</v>
@@ -35814,7 +35817,7 @@
         <v>1</v>
       </c>
       <c r="AT180">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU180">
         <v>1.05</v>
@@ -36297,7 +36300,7 @@
         <v>266</v>
       </c>
       <c r="P183" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q183">
         <v>7</v>
@@ -36384,7 +36387,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT183">
         <v>0.83</v>
@@ -36488,7 +36491,7 @@
         <v>150</v>
       </c>
       <c r="P184" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36679,7 +36682,7 @@
         <v>193</v>
       </c>
       <c r="P185" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q185">
         <v>0</v>
@@ -36870,7 +36873,7 @@
         <v>267</v>
       </c>
       <c r="P186" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q186">
         <v>3</v>
@@ -37061,7 +37064,7 @@
         <v>145</v>
       </c>
       <c r="P187" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q187">
         <v>4</v>
@@ -37443,7 +37446,7 @@
         <v>145</v>
       </c>
       <c r="P189" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q189">
         <v>3</v>
@@ -37825,7 +37828,7 @@
         <v>269</v>
       </c>
       <c r="P191" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -38016,7 +38019,7 @@
         <v>145</v>
       </c>
       <c r="P192" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38294,10 +38297,10 @@
         <v>2.33</v>
       </c>
       <c r="AS193">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT193">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AU193">
         <v>1.71</v>
@@ -38485,10 +38488,10 @@
         <v>2</v>
       </c>
       <c r="AS194">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT194">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU194">
         <v>1.73</v>
@@ -39304,6 +39307,388 @@
       </c>
       <c r="BK198">
         <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>4576429</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44999.70833333334</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>141</v>
+      </c>
+      <c r="H199" t="s">
+        <v>120</v>
+      </c>
+      <c r="I199">
+        <v>3</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>3</v>
+      </c>
+      <c r="L199">
+        <v>7</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>7</v>
+      </c>
+      <c r="O199" t="s">
+        <v>273</v>
+      </c>
+      <c r="P199" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q199">
+        <v>10</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>10</v>
+      </c>
+      <c r="T199">
+        <v>1.8</v>
+      </c>
+      <c r="U199">
+        <v>2.6</v>
+      </c>
+      <c r="V199">
+        <v>7</v>
+      </c>
+      <c r="W199">
+        <v>1.29</v>
+      </c>
+      <c r="X199">
+        <v>3.5</v>
+      </c>
+      <c r="Y199">
+        <v>2.25</v>
+      </c>
+      <c r="Z199">
+        <v>1.57</v>
+      </c>
+      <c r="AA199">
+        <v>5.5</v>
+      </c>
+      <c r="AB199">
+        <v>1.14</v>
+      </c>
+      <c r="AC199">
+        <v>1.32</v>
+      </c>
+      <c r="AD199">
+        <v>5.35</v>
+      </c>
+      <c r="AE199">
+        <v>9.4</v>
+      </c>
+      <c r="AF199">
+        <v>1.02</v>
+      </c>
+      <c r="AG199">
+        <v>19</v>
+      </c>
+      <c r="AH199">
+        <v>1.18</v>
+      </c>
+      <c r="AI199">
+        <v>5.2</v>
+      </c>
+      <c r="AJ199">
+        <v>1.58</v>
+      </c>
+      <c r="AK199">
+        <v>2.46</v>
+      </c>
+      <c r="AL199">
+        <v>1.91</v>
+      </c>
+      <c r="AM199">
+        <v>1.91</v>
+      </c>
+      <c r="AN199">
+        <v>1.09</v>
+      </c>
+      <c r="AO199">
+        <v>1.16</v>
+      </c>
+      <c r="AP199">
+        <v>3</v>
+      </c>
+      <c r="AQ199">
+        <v>2.14</v>
+      </c>
+      <c r="AR199">
+        <v>1.86</v>
+      </c>
+      <c r="AS199">
+        <v>2.25</v>
+      </c>
+      <c r="AT199">
+        <v>1.63</v>
+      </c>
+      <c r="AU199">
+        <v>2.71</v>
+      </c>
+      <c r="AV199">
+        <v>1.57</v>
+      </c>
+      <c r="AW199">
+        <v>4.28</v>
+      </c>
+      <c r="AX199">
+        <v>1.18</v>
+      </c>
+      <c r="AY199">
+        <v>11.5</v>
+      </c>
+      <c r="AZ199">
+        <v>6.65</v>
+      </c>
+      <c r="BA199">
+        <v>1.21</v>
+      </c>
+      <c r="BB199">
+        <v>1.42</v>
+      </c>
+      <c r="BC199">
+        <v>1.77</v>
+      </c>
+      <c r="BD199">
+        <v>2.26</v>
+      </c>
+      <c r="BE199">
+        <v>2.98</v>
+      </c>
+      <c r="BF199">
+        <v>17</v>
+      </c>
+      <c r="BG199">
+        <v>2</v>
+      </c>
+      <c r="BH199">
+        <v>7</v>
+      </c>
+      <c r="BI199">
+        <v>3</v>
+      </c>
+      <c r="BJ199">
+        <v>24</v>
+      </c>
+      <c r="BK199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>4576430</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44999.70833333334</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>133</v>
+      </c>
+      <c r="H200" t="s">
+        <v>125</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>145</v>
+      </c>
+      <c r="P200" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q200">
+        <v>6</v>
+      </c>
+      <c r="R200">
+        <v>3</v>
+      </c>
+      <c r="S200">
+        <v>9</v>
+      </c>
+      <c r="T200">
+        <v>3.4</v>
+      </c>
+      <c r="U200">
+        <v>2.1</v>
+      </c>
+      <c r="V200">
+        <v>3.2</v>
+      </c>
+      <c r="W200">
+        <v>1.4</v>
+      </c>
+      <c r="X200">
+        <v>2.75</v>
+      </c>
+      <c r="Y200">
+        <v>3</v>
+      </c>
+      <c r="Z200">
+        <v>1.36</v>
+      </c>
+      <c r="AA200">
+        <v>8</v>
+      </c>
+      <c r="AB200">
+        <v>1.08</v>
+      </c>
+      <c r="AC200">
+        <v>2.82</v>
+      </c>
+      <c r="AD200">
+        <v>3.3</v>
+      </c>
+      <c r="AE200">
+        <v>2.55</v>
+      </c>
+      <c r="AF200">
+        <v>1.06</v>
+      </c>
+      <c r="AG200">
+        <v>10</v>
+      </c>
+      <c r="AH200">
+        <v>1.34</v>
+      </c>
+      <c r="AI200">
+        <v>3.4</v>
+      </c>
+      <c r="AJ200">
+        <v>1.97</v>
+      </c>
+      <c r="AK200">
+        <v>1.88</v>
+      </c>
+      <c r="AL200">
+        <v>1.8</v>
+      </c>
+      <c r="AM200">
+        <v>1.95</v>
+      </c>
+      <c r="AN200">
+        <v>1.47</v>
+      </c>
+      <c r="AO200">
+        <v>1.28</v>
+      </c>
+      <c r="AP200">
+        <v>1.41</v>
+      </c>
+      <c r="AQ200">
+        <v>1.71</v>
+      </c>
+      <c r="AR200">
+        <v>1.86</v>
+      </c>
+      <c r="AS200">
+        <v>1.63</v>
+      </c>
+      <c r="AT200">
+        <v>1.75</v>
+      </c>
+      <c r="AU200">
+        <v>1.77</v>
+      </c>
+      <c r="AV200">
+        <v>1.74</v>
+      </c>
+      <c r="AW200">
+        <v>3.51</v>
+      </c>
+      <c r="AX200">
+        <v>2.11</v>
+      </c>
+      <c r="AY200">
+        <v>7.5</v>
+      </c>
+      <c r="AZ200">
+        <v>2.08</v>
+      </c>
+      <c r="BA200">
+        <v>1.27</v>
+      </c>
+      <c r="BB200">
+        <v>1.52</v>
+      </c>
+      <c r="BC200">
+        <v>1.93</v>
+      </c>
+      <c r="BD200">
+        <v>2.5</v>
+      </c>
+      <c r="BE200">
+        <v>3.42</v>
+      </c>
+      <c r="BF200">
+        <v>8</v>
+      </c>
+      <c r="BG200">
+        <v>6</v>
+      </c>
+      <c r="BH200">
+        <v>14</v>
+      </c>
+      <c r="BI200">
+        <v>6</v>
+      </c>
+      <c r="BJ200">
+        <v>22</v>
+      </c>
+      <c r="BK200">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT63" t="n">
         <v>0.5</v>
@@ -15316,7 +15316,7 @@
         <v>0.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU73" t="n">
         <v>3.17</v>
@@ -17549,7 +17549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT86" t="n">
         <v>1.67</v>
@@ -19985,7 +19985,7 @@
         <v>0.83</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -20388,7 +20388,7 @@
         <v>1.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT98" t="n">
         <v>1.17</v>
@@ -20997,10 +20997,10 @@
         <v>0</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT101" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU101" t="n">
         <v>0</v>
@@ -22218,7 +22218,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -23230,7 +23230,7 @@
         <v>3</v>
       </c>
       <c r="AS112" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT112" t="n">
         <v>1.17</v>
@@ -24248,7 +24248,7 @@
         <v>0.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU117" t="n">
         <v>0</v>
@@ -25260,7 +25260,7 @@
         <v>3</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT122" t="n">
         <v>1.5</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1.33</v>
@@ -26884,7 +26884,7 @@
         <v>1.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT130" t="n">
         <v>1.17</v>
@@ -27899,7 +27899,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT135" t="n">
         <v>0.88</v>
@@ -28508,7 +28508,7 @@
         <v>3</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT138" t="n">
         <v>1.75</v>
@@ -28714,7 +28714,7 @@
         <v>0.88</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU139" t="n">
         <v>1.14</v>
@@ -29526,7 +29526,7 @@
         <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU143" t="n">
         <v>1.85</v>
@@ -31150,7 +31150,7 @@
         <v>1.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU151" t="n">
         <v>2.62</v>
@@ -31353,7 +31353,7 @@
         <v>1.33</v>
       </c>
       <c r="AT152" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU152" t="n">
         <v>1.38</v>
@@ -32568,7 +32568,7 @@
         <v>0.75</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT158" t="n">
         <v>0.5</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -33786,7 +33786,7 @@
         <v>1.6</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>1.17</v>
       </c>
       <c r="AT168" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU168" t="n">
         <v>2.88</v>
@@ -36019,10 +36019,10 @@
         <v>2</v>
       </c>
       <c r="AS175" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU175" t="n">
         <v>2.32</v>
@@ -37240,7 +37240,7 @@
         <v>1.17</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU181" t="n">
         <v>2.03</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT186" t="n">
         <v>0.83</v>
@@ -38661,7 +38661,7 @@
         <v>1.75</v>
       </c>
       <c r="AT188" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AU188" t="n">
         <v>1.82</v>
@@ -38864,7 +38864,7 @@
         <v>1.38</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AU189" t="n">
         <v>1.24</v>
@@ -39676,7 +39676,7 @@
         <v>1.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU193" t="n">
         <v>1.71</v>
@@ -39876,7 +39876,7 @@
         <v>2</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT194" t="n">
         <v>1.63</v>
@@ -40079,7 +40079,7 @@
         <v>1.57</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AT195" t="n">
         <v>1.38</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT197" t="n">
         <v>1.75</v>
@@ -40891,7 +40891,7 @@
         <v>1.86</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT199" t="n">
         <v>1.63</v>
@@ -41097,7 +41097,7 @@
         <v>1.63</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41555,6 +41555,412 @@
       </c>
       <c r="BK202" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5652250</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45027.66666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['51', '82']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>6</v>
+      </c>
+      <c r="S203" t="n">
+        <v>10</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5652254</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45027.66666666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['27', '70', '76']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>8</v>
+      </c>
+      <c r="R204" t="n">
+        <v>5</v>
+      </c>
+      <c r="S204" t="n">
+        <v>13</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18970,7 +18970,7 @@
         <v>1.42</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU91" t="n">
         <v>1.96</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -19579,7 +19579,7 @@
         <v>0.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU94" t="n">
         <v>0</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT105" t="n">
         <v>1.88</v>
@@ -23636,7 +23636,7 @@
         <v>2.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT114" t="n">
         <v>1.42</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT120" t="n">
         <v>1.63</v>
@@ -25060,7 +25060,7 @@
         <v>0.7</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU127" t="n">
         <v>2.51</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU133" t="n">
         <v>1.94</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -29726,10 +29726,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT144" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU144" t="n">
         <v>2.12</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU146" t="n">
         <v>0.93</v>
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -31962,7 +31962,7 @@
         <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU155" t="n">
         <v>1.83</v>
@@ -32977,7 +32977,7 @@
         <v>1.42</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU160" t="n">
         <v>1.72</v>
@@ -33383,7 +33383,7 @@
         <v>1.63</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU162" t="n">
         <v>2.02</v>
@@ -33989,7 +33989,7 @@
         <v>0.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT165" t="n">
         <v>0.7</v>
@@ -35616,7 +35616,7 @@
         <v>1.88</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU173" t="n">
         <v>2.79</v>
@@ -36831,7 +36831,7 @@
         <v>0.4</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT179" t="n">
         <v>0.33</v>
@@ -37846,7 +37846,7 @@
         <v>1.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>1.55</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT185" t="n">
         <v>1.42</v>
@@ -38455,7 +38455,7 @@
         <v>1.83</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT187" t="n">
         <v>1.5</v>
@@ -39067,7 +39067,7 @@
         <v>1.5</v>
       </c>
       <c r="AT190" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU190" t="n">
         <v>1.47</v>
@@ -39270,7 +39270,7 @@
         <v>1.88</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU191" t="n">
         <v>2.5</v>
@@ -39473,7 +39473,7 @@
         <v>1.25</v>
       </c>
       <c r="AT192" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AU192" t="n">
         <v>1.27</v>
@@ -40282,7 +40282,7 @@
         <v>1.71</v>
       </c>
       <c r="AS196" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT196" t="n">
         <v>1.5</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -41297,7 +41297,7 @@
         <v>2.14</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT201" t="n">
         <v>1.88</v>
@@ -41500,7 +41500,7 @@
         <v>1.43</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.63</v>
+        <v>2.33</v>
       </c>
       <c r="AT202" t="n">
         <v>1.25</v>
@@ -41961,6 +41961,412 @@
       </c>
       <c r="BK204" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5652247</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45028.66666666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['21', '74']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>3</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>6</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5652257</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45028.66666666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3</v>
+      </c>
+      <c r="R206" t="n">
+        <v>10</v>
+      </c>
+      <c r="S206" t="n">
+        <v>13</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18970,7 +18970,7 @@
         <v>1.42</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU91" t="n">
         <v>1.96</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -19579,7 +19579,7 @@
         <v>0.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU94" t="n">
         <v>0</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT105" t="n">
         <v>1.88</v>
@@ -23636,7 +23636,7 @@
         <v>2.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT114" t="n">
         <v>1.42</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT120" t="n">
         <v>1.63</v>
@@ -25060,7 +25060,7 @@
         <v>0.7</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU121" t="n">
         <v>1.81</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU127" t="n">
         <v>2.51</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU133" t="n">
         <v>1.94</v>
@@ -27696,7 +27696,7 @@
         <v>2</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -29726,10 +29726,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU144" t="n">
         <v>2.12</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU146" t="n">
         <v>0.93</v>
@@ -30335,7 +30335,7 @@
         <v>1</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -31962,7 +31962,7 @@
         <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU155" t="n">
         <v>1.83</v>
@@ -32977,7 +32977,7 @@
         <v>1.42</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU160" t="n">
         <v>1.72</v>
@@ -33383,7 +33383,7 @@
         <v>1.63</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU162" t="n">
         <v>2.02</v>
@@ -33989,7 +33989,7 @@
         <v>0.88</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT165" t="n">
         <v>0.7</v>
@@ -35616,7 +35616,7 @@
         <v>1.88</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU173" t="n">
         <v>2.79</v>
@@ -36831,7 +36831,7 @@
         <v>0.4</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT179" t="n">
         <v>0.33</v>
@@ -37846,7 +37846,7 @@
         <v>1.2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>1.55</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT185" t="n">
         <v>1.42</v>
@@ -38455,7 +38455,7 @@
         <v>1.83</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT187" t="n">
         <v>1.5</v>
@@ -39067,7 +39067,7 @@
         <v>1.5</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU190" t="n">
         <v>1.47</v>
@@ -39270,7 +39270,7 @@
         <v>1.88</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU191" t="n">
         <v>2.5</v>
@@ -39473,7 +39473,7 @@
         <v>1.25</v>
       </c>
       <c r="AT192" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU192" t="n">
         <v>1.27</v>
@@ -40282,7 +40282,7 @@
         <v>1.71</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT196" t="n">
         <v>1.5</v>
@@ -40691,7 +40691,7 @@
         <v>1.5</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -41297,7 +41297,7 @@
         <v>2.14</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT201" t="n">
         <v>1.88</v>
@@ -41500,7 +41500,7 @@
         <v>1.43</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT202" t="n">
         <v>1.25</v>
@@ -42109,10 +42109,10 @@
         <v>2</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU205" t="n">
         <v>2.57</v>
@@ -42312,10 +42312,10 @@
         <v>2.63</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT206" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU206" t="n">
         <v>1.52</v>
@@ -42367,6 +42367,412 @@
       </c>
       <c r="BK206" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5652261</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45034.66666666666</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['58', '80']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>8</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2</v>
+      </c>
+      <c r="S207" t="n">
+        <v>10</v>
+      </c>
+      <c r="T207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5652271</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45034.66666666666</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>16</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>17</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V208" t="n">
+        <v>5</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Europe UEFA Champions League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT63" t="n">
         <v>0.5</v>
@@ -15316,7 +15316,7 @@
         <v>0.5</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU73" t="n">
         <v>3.17</v>
@@ -17549,7 +17549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU84" t="n">
         <v>1.34</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT86" t="n">
         <v>1.67</v>
@@ -19985,7 +19985,7 @@
         <v>0.83</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -20388,7 +20388,7 @@
         <v>1.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT98" t="n">
         <v>1.17</v>
@@ -20997,10 +20997,10 @@
         <v>0</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AU101" t="n">
         <v>0</v>
@@ -22218,7 +22218,7 @@
         <v>1.33</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU107" t="n">
         <v>1.53</v>
@@ -23230,7 +23230,7 @@
         <v>3</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT112" t="n">
         <v>1.17</v>
@@ -24248,7 +24248,7 @@
         <v>0.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU117" t="n">
         <v>0</v>
@@ -25260,7 +25260,7 @@
         <v>3</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT122" t="n">
         <v>1.5</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT123" t="n">
         <v>1.33</v>
@@ -26884,7 +26884,7 @@
         <v>1.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT130" t="n">
         <v>1.17</v>
@@ -27899,7 +27899,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT135" t="n">
         <v>0.88</v>
@@ -28508,7 +28508,7 @@
         <v>3</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT138" t="n">
         <v>1.75</v>
@@ -28714,7 +28714,7 @@
         <v>0.88</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.14</v>
@@ -29526,7 +29526,7 @@
         <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU143" t="n">
         <v>1.85</v>
@@ -31150,7 +31150,7 @@
         <v>1.17</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU151" t="n">
         <v>2.62</v>
@@ -31353,7 +31353,7 @@
         <v>1.33</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.38</v>
@@ -32568,7 +32568,7 @@
         <v>0.75</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT158" t="n">
         <v>0.5</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -33786,7 +33786,7 @@
         <v>1.6</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -34601,7 +34601,7 @@
         <v>1.17</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AU168" t="n">
         <v>2.88</v>
@@ -36019,10 +36019,10 @@
         <v>2</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU175" t="n">
         <v>2.32</v>
@@ -37240,7 +37240,7 @@
         <v>1.17</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU181" t="n">
         <v>2.03</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT186" t="n">
         <v>0.83</v>
@@ -38661,7 +38661,7 @@
         <v>1.75</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AU188" t="n">
         <v>1.82</v>
@@ -38864,7 +38864,7 @@
         <v>1.38</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU189" t="n">
         <v>1.24</v>
@@ -39676,7 +39676,7 @@
         <v>1.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AU193" t="n">
         <v>1.71</v>
@@ -39876,7 +39876,7 @@
         <v>2</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT194" t="n">
         <v>1.63</v>
@@ -40079,7 +40079,7 @@
         <v>1.57</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT195" t="n">
         <v>1.38</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AT197" t="n">
         <v>1.75</v>
@@ -40891,7 +40891,7 @@
         <v>1.86</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT199" t="n">
         <v>1.63</v>
@@ -41097,7 +41097,7 @@
         <v>1.63</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU200" t="n">
         <v>1.77</v>
@@ -41703,10 +41703,10 @@
         <v>1.75</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU203" t="n">
         <v>2.17</v>
@@ -41906,10 +41906,10 @@
         <v>3</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT204" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="AU204" t="n">
         <v>2.83</v>
@@ -42773,6 +42773,412 @@
       </c>
       <c r="BK208" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5652264</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45035.66666666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>3</v>
+      </c>
+      <c r="M209" t="n">
+        <v>3</v>
+      </c>
+      <c r="N209" t="n">
+        <v>6</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['14', '65', '78']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['38', '86', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>4</v>
+      </c>
+      <c r="R209" t="n">
+        <v>6</v>
+      </c>
+      <c r="S209" t="n">
+        <v>10</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5652268</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Europe UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45035.66666666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>5</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2</v>
+      </c>
+      <c r="S210" t="n">
+        <v>7</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
